--- a/assets/files/E8.xlsx
+++ b/assets/files/E8.xlsx
@@ -202,94 +202,94 @@
     <t>Zamora</t>
   </si>
   <si>
-    <t>E51U01</t>
-  </si>
-  <si>
-    <t>E51U02</t>
-  </si>
-  <si>
-    <t>E51U03</t>
-  </si>
-  <si>
-    <t>E51U04</t>
-  </si>
-  <si>
-    <t>E51U05</t>
-  </si>
-  <si>
-    <t>E51U06</t>
-  </si>
-  <si>
-    <t>E51U07</t>
-  </si>
-  <si>
-    <t>E51U08</t>
-  </si>
-  <si>
-    <t>E51U09</t>
-  </si>
-  <si>
-    <t>E51TU</t>
-  </si>
-  <si>
-    <t>E51R01</t>
-  </si>
-  <si>
-    <t>E51R02</t>
-  </si>
-  <si>
-    <t>E51R03</t>
-  </si>
-  <si>
-    <t>E51R04</t>
-  </si>
-  <si>
-    <t>E51R05</t>
-  </si>
-  <si>
-    <t>E51R06</t>
-  </si>
-  <si>
-    <t>E51R07</t>
-  </si>
-  <si>
-    <t>E51R08</t>
-  </si>
-  <si>
-    <t>E51R09</t>
-  </si>
-  <si>
-    <t>E51TR</t>
-  </si>
-  <si>
-    <t>E51T01</t>
-  </si>
-  <si>
-    <t>E51T02</t>
-  </si>
-  <si>
-    <t>E51T03</t>
-  </si>
-  <si>
-    <t>E51T04</t>
-  </si>
-  <si>
-    <t>E51T05</t>
-  </si>
-  <si>
-    <t>E51T06</t>
-  </si>
-  <si>
-    <t>E51T07</t>
-  </si>
-  <si>
-    <t>E51T08</t>
-  </si>
-  <si>
-    <t>E51T09</t>
-  </si>
-  <si>
-    <t>E51TUR</t>
+    <t>E53U01</t>
+  </si>
+  <si>
+    <t>E53U02</t>
+  </si>
+  <si>
+    <t>E53U03</t>
+  </si>
+  <si>
+    <t>E53U04</t>
+  </si>
+  <si>
+    <t>E53U05</t>
+  </si>
+  <si>
+    <t>E53U06</t>
+  </si>
+  <si>
+    <t>E53U07</t>
+  </si>
+  <si>
+    <t>E53U08</t>
+  </si>
+  <si>
+    <t>E53U09</t>
+  </si>
+  <si>
+    <t>E53TU</t>
+  </si>
+  <si>
+    <t>E53R01</t>
+  </si>
+  <si>
+    <t>E53R02</t>
+  </si>
+  <si>
+    <t>E53R03</t>
+  </si>
+  <si>
+    <t>E53R04</t>
+  </si>
+  <si>
+    <t>E53R05</t>
+  </si>
+  <si>
+    <t>E53R06</t>
+  </si>
+  <si>
+    <t>E53R07</t>
+  </si>
+  <si>
+    <t>E53R08</t>
+  </si>
+  <si>
+    <t>E53R09</t>
+  </si>
+  <si>
+    <t>E53TR</t>
+  </si>
+  <si>
+    <t>E53T01</t>
+  </si>
+  <si>
+    <t>E53T02</t>
+  </si>
+  <si>
+    <t>E53T03</t>
+  </si>
+  <si>
+    <t>E53T04</t>
+  </si>
+  <si>
+    <t>E53T05</t>
+  </si>
+  <si>
+    <t>E53T06</t>
+  </si>
+  <si>
+    <t>E53T07</t>
+  </si>
+  <si>
+    <t>E53T08</t>
+  </si>
+  <si>
+    <t>E53T09</t>
+  </si>
+  <si>
+    <t>E53TUR</t>
   </si>
 </sst>
 </file>
@@ -357,58 +357,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -711,9 +660,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -828,31 +775,31 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>42.857142857142854</v>
+        <v>58.201058201058203</v>
       </c>
       <c r="D2" s="2">
-        <v>28.571428571428573</v>
+        <v>6.3492063492063489</v>
       </c>
       <c r="E2" s="2">
-        <v>24.338624338624339</v>
+        <v>44.444444444444443</v>
       </c>
       <c r="F2" s="2">
+        <v>27.513227513227513</v>
+      </c>
+      <c r="G2" s="2">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="H2" s="2">
         <v>13.756613756613756</v>
       </c>
-      <c r="G2" s="2">
-        <v>53.968253968253968</v>
-      </c>
-      <c r="H2" s="2">
-        <v>58.201058201058203</v>
-      </c>
       <c r="I2" s="2">
-        <v>37.566137566137563</v>
+        <v>34.391534391534393</v>
       </c>
       <c r="J2" s="2">
-        <v>0.52910052910052907</v>
+        <v>41.269841269841272</v>
       </c>
       <c r="K2" s="2">
-        <v>0.52910052910052907</v>
+        <v>1.5873015873015872</v>
       </c>
       <c r="L2" s="3">
         <v>189</v>
@@ -861,58 +808,58 @@
         <v>54.773869346733669</v>
       </c>
       <c r="N2" s="2">
-        <v>28.643216080402009</v>
+        <v>10.552763819095478</v>
       </c>
       <c r="O2" s="2">
-        <v>35.678391959798994</v>
+        <v>43.718592964824118</v>
       </c>
       <c r="P2" s="2">
+        <v>27.1356783919598</v>
+      </c>
+      <c r="Q2" s="2">
         <v>30.150753768844222</v>
       </c>
-      <c r="Q2" s="2">
-        <v>30.653266331658291</v>
-      </c>
       <c r="R2" s="2">
-        <v>51.758793969849243</v>
+        <v>26.13065326633166</v>
       </c>
       <c r="S2" s="2">
-        <v>22.110552763819097</v>
+        <v>27.638190954773869</v>
       </c>
       <c r="T2" s="2">
-        <v>2.512562814070352</v>
+        <v>28.140703517587941</v>
       </c>
       <c r="U2" s="2">
-        <v>3.5175879396984926</v>
+        <v>2.0100502512562812</v>
       </c>
       <c r="V2" s="3">
         <v>199</v>
       </c>
       <c r="W2" s="2">
-        <v>48.96907216494845</v>
+        <v>56.443298969072167</v>
       </c>
       <c r="X2" s="2">
-        <v>28.608247422680414</v>
+        <v>8.5051546391752577</v>
       </c>
       <c r="Y2" s="2">
-        <v>30.154639175257731</v>
+        <v>44.072164948453612</v>
       </c>
       <c r="Z2" s="2">
-        <v>22.164948453608247</v>
+        <v>27.319587628865978</v>
       </c>
       <c r="AA2" s="2">
-        <v>42.010309278350519</v>
+        <v>31.701030927835053</v>
       </c>
       <c r="AB2" s="2">
-        <v>54.896907216494846</v>
+        <v>20.103092783505154</v>
       </c>
       <c r="AC2" s="2">
-        <v>29.63917525773196</v>
+        <v>30.927835051546392</v>
       </c>
       <c r="AD2" s="2">
-        <v>1.5463917525773196</v>
+        <v>34.536082474226802</v>
       </c>
       <c r="AE2" s="2">
-        <v>2.0618556701030926</v>
+        <v>1.8041237113402062</v>
       </c>
       <c r="AF2" s="3">
         <v>388</v>
@@ -926,88 +873,88 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>62.601626016260163</v>
+        <v>40.650406504065039</v>
       </c>
       <c r="D3" s="2">
-        <v>63.414634146341463</v>
+        <v>40.650406504065039</v>
       </c>
       <c r="E3" s="2">
-        <v>59.349593495934961</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="F3" s="2">
-        <v>0.81300813008130079</v>
+        <v>11.382113821138212</v>
       </c>
       <c r="G3" s="2">
-        <v>28.45528455284553</v>
+        <v>42.27642276422764</v>
       </c>
       <c r="H3" s="2">
-        <v>21.13821138211382</v>
+        <v>22.764227642276424</v>
       </c>
       <c r="I3" s="2">
-        <v>19.512195121951219</v>
+        <v>18.699186991869919</v>
       </c>
       <c r="J3" s="2">
-        <v>0.81300813008130079</v>
+        <v>22.764227642276424</v>
       </c>
       <c r="K3" s="2">
-        <v>0.81300813008130079</v>
+        <v>1.6260162601626016</v>
       </c>
       <c r="L3" s="3">
         <v>123</v>
       </c>
       <c r="M3" s="2">
-        <v>30.522088353413654</v>
+        <v>48.192771084337352</v>
       </c>
       <c r="N3" s="2">
-        <v>34.136546184738954</v>
+        <v>48.192771084337352</v>
       </c>
       <c r="O3" s="2">
-        <v>23.694779116465863</v>
+        <v>37.349397590361448</v>
       </c>
       <c r="P3" s="2">
-        <v>3.2128514056224899</v>
+        <v>18.473895582329316</v>
       </c>
       <c r="Q3" s="2">
-        <v>32.931726907630519</v>
+        <v>36.546184738955823</v>
       </c>
       <c r="R3" s="2">
-        <v>24.096385542168676</v>
+        <v>8.4337349397590362</v>
       </c>
       <c r="S3" s="2">
-        <v>14.056224899598394</v>
+        <v>10.441767068273093</v>
       </c>
       <c r="T3" s="2">
-        <v>3.2128514056224899</v>
+        <v>10.441767068273093</v>
       </c>
       <c r="U3" s="2">
-        <v>3.2128514056224899</v>
+        <v>2.8112449799196786</v>
       </c>
       <c r="V3" s="3">
         <v>249</v>
       </c>
       <c r="W3" s="2">
-        <v>41.12903225806452</v>
+        <v>45.698924731182792</v>
       </c>
       <c r="X3" s="2">
-        <v>43.817204301075272</v>
+        <v>45.698924731182792</v>
       </c>
       <c r="Y3" s="2">
-        <v>35.483870967741936</v>
+        <v>36.021505376344088</v>
       </c>
       <c r="Z3" s="2">
-        <v>2.4193548387096775</v>
+        <v>16.129032258064516</v>
       </c>
       <c r="AA3" s="2">
-        <v>31.451612903225808</v>
+        <v>38.44086021505376</v>
       </c>
       <c r="AB3" s="2">
-        <v>23.118279569892472</v>
+        <v>13.172043010752688</v>
       </c>
       <c r="AC3" s="2">
-        <v>15.86021505376344</v>
+        <v>13.172043010752688</v>
       </c>
       <c r="AD3" s="2">
-        <v>2.4193548387096775</v>
+        <v>14.516129032258064</v>
       </c>
       <c r="AE3" s="2">
         <v>2.4193548387096775</v>
@@ -1024,91 +971,91 @@
         <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>60.536398467432953</v>
+        <v>74.329501915708818</v>
       </c>
       <c r="D4" s="2">
-        <v>23.371647509578544</v>
+        <v>6.1302681992337167</v>
       </c>
       <c r="E4" s="2">
-        <v>13.409961685823754</v>
+        <v>72.796934865900383</v>
       </c>
       <c r="F4" s="2">
-        <v>4.9808429118773949</v>
+        <v>60.919540229885058</v>
       </c>
       <c r="G4" s="2">
-        <v>26.053639846743295</v>
+        <v>9.1954022988505741</v>
       </c>
       <c r="H4" s="2">
-        <v>63.218390804597703</v>
+        <v>12.64367816091954</v>
       </c>
       <c r="I4" s="2">
-        <v>71.64750957854406</v>
+        <v>11.877394636015326</v>
       </c>
       <c r="J4" s="2">
-        <v>40.229885057471265</v>
+        <v>6.8965517241379306</v>
       </c>
       <c r="K4" s="2">
-        <v>38.697318007662837</v>
+        <v>0.76628352490421459</v>
       </c>
       <c r="L4" s="3">
         <v>261</v>
       </c>
       <c r="M4" s="2">
-        <v>48.744769874476987</v>
+        <v>71.54811715481172</v>
       </c>
       <c r="N4" s="2">
-        <v>24.89539748953975</v>
+        <v>10.251046025104603</v>
       </c>
       <c r="O4" s="2">
-        <v>21.338912133891213</v>
+        <v>75.73221757322176</v>
       </c>
       <c r="P4" s="2">
-        <v>9.2050209205020916</v>
+        <v>61.087866108786613</v>
       </c>
       <c r="Q4" s="2">
-        <v>24.267782426778243</v>
+        <v>9.6234309623430967</v>
       </c>
       <c r="R4" s="2">
-        <v>52.30125523012552</v>
+        <v>8.3682008368200833</v>
       </c>
       <c r="S4" s="2">
-        <v>56.694560669456067</v>
+        <v>12.97071129707113</v>
       </c>
       <c r="T4" s="2">
-        <v>31.380753138075313</v>
+        <v>8.3682008368200833</v>
       </c>
       <c r="U4" s="2">
-        <v>41.84100418410042</v>
+        <v>1.8828451882845187</v>
       </c>
       <c r="V4" s="3">
         <v>478</v>
       </c>
       <c r="W4" s="2">
-        <v>52.909336941813258</v>
+        <v>72.530446549391073</v>
       </c>
       <c r="X4" s="2">
-        <v>24.357239512855209</v>
+        <v>8.7956698240866036</v>
       </c>
       <c r="Y4" s="2">
-        <v>18.538565629228689</v>
+        <v>74.695534506089317</v>
       </c>
       <c r="Z4" s="2">
-        <v>7.7131258457374834</v>
+        <v>61.028416779431666</v>
       </c>
       <c r="AA4" s="2">
-        <v>24.89851150202977</v>
+        <v>9.472259810554803</v>
       </c>
       <c r="AB4" s="2">
-        <v>56.156968876860624</v>
+        <v>9.8782138024357238</v>
       </c>
       <c r="AC4" s="2">
-        <v>61.975642760487148</v>
+        <v>12.584573748308525</v>
       </c>
       <c r="AD4" s="2">
-        <v>34.506089309878213</v>
+        <v>7.8484438430311227</v>
       </c>
       <c r="AE4" s="2">
-        <v>40.730717185385657</v>
+        <v>1.4884979702300405</v>
       </c>
       <c r="AF4" s="3">
         <v>739</v>
@@ -1122,91 +1069,91 @@
         <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>50</v>
+        <v>19.424460431654676</v>
       </c>
       <c r="D5" s="2">
-        <v>23.741007194244606</v>
+        <v>3.9568345323741005</v>
       </c>
       <c r="E5" s="2">
-        <v>43.884892086330936</v>
+        <v>35.611510791366904</v>
       </c>
       <c r="F5" s="2">
-        <v>32.014388489208635</v>
+        <v>24.820143884892087</v>
       </c>
       <c r="G5" s="2">
-        <v>31.294964028776977</v>
+        <v>56.474820143884891</v>
       </c>
       <c r="H5" s="2">
+        <v>13.669064748201439</v>
+      </c>
+      <c r="I5" s="2">
         <v>17.266187050359711</v>
       </c>
-      <c r="I5" s="2">
-        <v>27.697841726618705</v>
-      </c>
       <c r="J5" s="2">
-        <v>4.3165467625899279</v>
+        <v>28.776978417266186</v>
       </c>
       <c r="K5" s="2">
-        <v>2.1582733812949639</v>
+        <v>6.8345323741007196</v>
       </c>
       <c r="L5" s="3">
         <v>278</v>
       </c>
       <c r="M5" s="2">
-        <v>67.5</v>
+        <v>16.25</v>
       </c>
       <c r="N5" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="O5" s="2">
+        <v>28.75</v>
+      </c>
+      <c r="P5" s="2">
         <v>21.25</v>
       </c>
-      <c r="O5" s="2">
-        <v>53.75</v>
-      </c>
-      <c r="P5" s="2">
-        <v>32.5</v>
-      </c>
       <c r="Q5" s="2">
-        <v>23.75</v>
+        <v>62.5</v>
       </c>
       <c r="R5" s="2">
-        <v>7.5</v>
+        <v>21.25</v>
       </c>
       <c r="S5" s="2">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="T5" s="2">
-        <v>1.25</v>
+        <v>36.25</v>
       </c>
       <c r="U5" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V5" s="3">
         <v>80</v>
       </c>
       <c r="W5" s="2">
-        <v>53.910614525139664</v>
+        <v>18.715083798882681</v>
       </c>
       <c r="X5" s="2">
-        <v>23.184357541899441</v>
+        <v>3.3519553072625698</v>
       </c>
       <c r="Y5" s="2">
-        <v>46.089385474860336</v>
+        <v>34.07821229050279</v>
       </c>
       <c r="Z5" s="2">
-        <v>32.122905027932958</v>
+        <v>24.022346368715084</v>
       </c>
       <c r="AA5" s="2">
-        <v>29.608938547486034</v>
+        <v>57.821229050279328</v>
       </c>
       <c r="AB5" s="2">
-        <v>15.083798882681565</v>
+        <v>15.363128491620111</v>
       </c>
       <c r="AC5" s="2">
-        <v>24.860335195530727</v>
+        <v>16.201117318435752</v>
       </c>
       <c r="AD5" s="2">
-        <v>3.6312849162011172</v>
+        <v>30.446927374301676</v>
       </c>
       <c r="AE5" s="2">
-        <v>1.6759776536312849</v>
+        <v>6.4245810055865924</v>
       </c>
       <c r="AF5" s="3">
         <v>358</v>
@@ -1241,70 +1188,70 @@
         <v>83.739837398373979</v>
       </c>
       <c r="J6" s="2">
-        <v>90.243902439024396</v>
+        <v>13.821138211382113</v>
       </c>
       <c r="K6" s="2">
-        <v>96.747967479674799</v>
+        <v>2.4390243902439024</v>
       </c>
       <c r="L6" s="3">
         <v>123</v>
       </c>
       <c r="M6" s="2">
-        <v>41.284403669724767</v>
+        <v>33.944954128440365</v>
       </c>
       <c r="N6" s="2">
-        <v>27.064220183486238</v>
+        <v>18.807339449541285</v>
       </c>
       <c r="O6" s="2">
-        <v>32.568807339449542</v>
+        <v>37.155963302752291</v>
       </c>
       <c r="P6" s="2">
-        <v>18.807339449541285</v>
+        <v>11.467889908256881</v>
       </c>
       <c r="Q6" s="2">
-        <v>14.678899082568808</v>
+        <v>20.183486238532112</v>
       </c>
       <c r="R6" s="2">
-        <v>18.348623853211009</v>
+        <v>17.889908256880734</v>
       </c>
       <c r="S6" s="2">
-        <v>21.559633027522935</v>
+        <v>14.220183486238533</v>
       </c>
       <c r="T6" s="2">
-        <v>5.0458715596330279</v>
+        <v>20.642201834862384</v>
       </c>
       <c r="U6" s="2">
-        <v>8.7155963302752291</v>
+        <v>3.2110091743119265</v>
       </c>
       <c r="V6" s="3">
         <v>218</v>
       </c>
       <c r="W6" s="2">
-        <v>73.90029325513197</v>
+        <v>34.017595307917887</v>
       </c>
       <c r="X6" s="2">
-        <v>60.117302052785924</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="Y6" s="2">
-        <v>63.636363636363633</v>
+        <v>40.175953079178889</v>
       </c>
       <c r="Z6" s="2">
-        <v>47.507331378299121</v>
+        <v>9.9706744868035191</v>
       </c>
       <c r="AA6" s="2">
-        <v>47.214076246334308</v>
+        <v>19.35483870967742</v>
       </c>
       <c r="AB6" s="2">
-        <v>52.785923753665692</v>
+        <v>17.302052785923753</v>
       </c>
       <c r="AC6" s="2">
-        <v>53.958944281524928</v>
+        <v>13.196480938416423</v>
       </c>
       <c r="AD6" s="2">
-        <v>35.777126099706742</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="AE6" s="2">
-        <v>40.469208211143695</v>
+        <v>2.9325513196480939</v>
       </c>
       <c r="AF6" s="3">
         <v>341</v>
@@ -1318,91 +1265,91 @@
         <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>43.1924882629108</v>
+        <v>41.314553990610328</v>
       </c>
       <c r="D7" s="2">
-        <v>26.760563380281692</v>
+        <v>14.084507042253522</v>
       </c>
       <c r="E7" s="2">
-        <v>28.63849765258216</v>
+        <v>45.070422535211264</v>
       </c>
       <c r="F7" s="2">
-        <v>8.92018779342723</v>
+        <v>36.619718309859152</v>
       </c>
       <c r="G7" s="2">
-        <v>62.441314553990608</v>
+        <v>5.164319248826291</v>
       </c>
       <c r="H7" s="2">
-        <v>34.272300469483568</v>
+        <v>16.431924882629108</v>
       </c>
       <c r="I7" s="2">
-        <v>24.413145539906104</v>
+        <v>14.553990610328638</v>
       </c>
       <c r="J7" s="2">
-        <v>3.2863849765258215</v>
+        <v>10.328638497652582</v>
       </c>
       <c r="K7" s="2">
-        <v>4.694835680751174</v>
+        <v>4.225352112676056</v>
       </c>
       <c r="L7" s="3">
         <v>213</v>
       </c>
       <c r="M7" s="2">
+        <v>32.820512820512818</v>
+      </c>
+      <c r="N7" s="2">
+        <v>16.410256410256409</v>
+      </c>
+      <c r="O7" s="2">
         <v>37.948717948717949</v>
       </c>
-      <c r="N7" s="2">
-        <v>36.92307692307692</v>
-      </c>
-      <c r="O7" s="2">
-        <v>27.692307692307693</v>
-      </c>
       <c r="P7" s="2">
-        <v>13.846153846153847</v>
+        <v>38.974358974358971</v>
       </c>
       <c r="Q7" s="2">
-        <v>61.025641025641029</v>
+        <v>11.794871794871796</v>
       </c>
       <c r="R7" s="2">
-        <v>33.846153846153847</v>
+        <v>17.948717948717949</v>
       </c>
       <c r="S7" s="2">
-        <v>21.025641025641026</v>
+        <v>18.46153846153846</v>
       </c>
       <c r="T7" s="2">
-        <v>3.5897435897435899</v>
+        <v>17.435897435897434</v>
       </c>
       <c r="U7" s="2">
-        <v>4.1025641025641022</v>
+        <v>2.0512820512820511</v>
       </c>
       <c r="V7" s="3">
         <v>195</v>
       </c>
       <c r="W7" s="2">
-        <v>40.686274509803923</v>
+        <v>37.254901960784316</v>
       </c>
       <c r="X7" s="2">
-        <v>31.617647058823529</v>
+        <v>15.196078431372548</v>
       </c>
       <c r="Y7" s="2">
-        <v>28.186274509803923</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="Z7" s="2">
-        <v>11.274509803921569</v>
+        <v>37.745098039215684</v>
       </c>
       <c r="AA7" s="2">
-        <v>61.764705882352942</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="AB7" s="2">
-        <v>34.068627450980394</v>
+        <v>17.156862745098039</v>
       </c>
       <c r="AC7" s="2">
-        <v>22.794117647058822</v>
+        <v>16.421568627450981</v>
       </c>
       <c r="AD7" s="2">
-        <v>3.4313725490196076</v>
+        <v>13.725490196078431</v>
       </c>
       <c r="AE7" s="2">
-        <v>4.4117647058823533</v>
+        <v>3.1862745098039214</v>
       </c>
       <c r="AF7" s="3">
         <v>408</v>
@@ -1416,28 +1363,28 @@
         <v>13</v>
       </c>
       <c r="C8" s="2">
-        <v>44.648318042813457</v>
+        <v>22.935779816513762</v>
       </c>
       <c r="D8" s="2">
-        <v>22.935779816513762</v>
+        <v>15.290519877675841</v>
       </c>
       <c r="E8" s="2">
-        <v>24.159021406727827</v>
+        <v>38.532110091743121</v>
       </c>
       <c r="F8" s="2">
-        <v>11.009174311926605</v>
+        <v>21.406727828746178</v>
       </c>
       <c r="G8" s="2">
-        <v>36.391437308868504</v>
+        <v>33.027522935779814</v>
       </c>
       <c r="H8" s="2">
-        <v>26.605504587155963</v>
+        <v>7.0336391437308867</v>
       </c>
       <c r="I8" s="2">
-        <v>44.342507645259936</v>
+        <v>7.951070336391437</v>
       </c>
       <c r="J8" s="2">
-        <v>3.0581039755351682</v>
+        <v>27.828746177370032</v>
       </c>
       <c r="K8" s="2">
         <v>4.5871559633027523</v>
@@ -1449,25 +1396,25 @@
         <v>23.255813953488371</v>
       </c>
       <c r="N8" s="2">
-        <v>13.953488372093023</v>
+        <v>4.6511627906976747</v>
       </c>
       <c r="O8" s="2">
+        <v>23.255813953488371</v>
+      </c>
+      <c r="P8" s="2">
+        <v>44.186046511627907</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>18.604651162790699</v>
+      </c>
+      <c r="R8" s="2">
+        <v>2.3255813953488373</v>
+      </c>
+      <c r="S8" s="2">
         <v>9.3023255813953494</v>
       </c>
-      <c r="P8" s="2">
-        <v>4.6511627906976747</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>48.837209302325583</v>
-      </c>
-      <c r="R8" s="2">
-        <v>62.790697674418603</v>
-      </c>
-      <c r="S8" s="2">
-        <v>16.279069767441861</v>
-      </c>
       <c r="T8" s="2">
-        <v>0</v>
+        <v>9.3023255813953494</v>
       </c>
       <c r="U8" s="2">
         <v>2.3255813953488373</v>
@@ -1476,28 +1423,28 @@
         <v>43</v>
       </c>
       <c r="W8" s="2">
-        <v>42.162162162162161</v>
+        <v>22.972972972972972</v>
       </c>
       <c r="X8" s="2">
-        <v>21.891891891891891</v>
+        <v>14.054054054054054</v>
       </c>
       <c r="Y8" s="2">
-        <v>22.432432432432432</v>
+        <v>36.756756756756758</v>
       </c>
       <c r="Z8" s="2">
-        <v>10.27027027027027</v>
+        <v>24.054054054054053</v>
       </c>
       <c r="AA8" s="2">
-        <v>37.837837837837839</v>
+        <v>31.351351351351351</v>
       </c>
       <c r="AB8" s="2">
-        <v>30.810810810810811</v>
+        <v>6.4864864864864868</v>
       </c>
       <c r="AC8" s="2">
-        <v>41.081081081081081</v>
+        <v>8.1081081081081088</v>
       </c>
       <c r="AD8" s="2">
-        <v>2.7027027027027026</v>
+        <v>25.675675675675677</v>
       </c>
       <c r="AE8" s="2">
         <v>4.3243243243243246</v>
@@ -1514,91 +1461,91 @@
         <v>15</v>
       </c>
       <c r="C9" s="2">
-        <v>56.115107913669064</v>
+        <v>33.812949640287769</v>
       </c>
       <c r="D9" s="2">
+        <v>7.1942446043165464</v>
+      </c>
+      <c r="E9" s="2">
+        <v>35.97122302158273</v>
+      </c>
+      <c r="F9" s="2">
         <v>27.338129496402878</v>
       </c>
-      <c r="E9" s="2">
-        <v>34.532374100719423</v>
-      </c>
-      <c r="F9" s="2">
-        <v>14.388489208633093</v>
-      </c>
       <c r="G9" s="2">
-        <v>34.532374100719423</v>
+        <v>46.043165467625897</v>
       </c>
       <c r="H9" s="2">
-        <v>20.863309352517987</v>
+        <v>21.582733812949641</v>
       </c>
       <c r="I9" s="2">
-        <v>46.762589928057551</v>
+        <v>29.496402877697843</v>
       </c>
       <c r="J9" s="2">
-        <v>5.7553956834532372</v>
+        <v>38.129496402877699</v>
       </c>
       <c r="K9" s="2">
-        <v>2.8776978417266186</v>
+        <v>0.71942446043165464</v>
       </c>
       <c r="L9" s="3">
         <v>246</v>
       </c>
       <c r="M9" s="2">
-        <v>59.756097560975611</v>
+        <v>49.1869918699187</v>
       </c>
       <c r="N9" s="2">
-        <v>29.674796747967481</v>
+        <v>9.7560975609756095</v>
       </c>
       <c r="O9" s="2">
-        <v>33.739837398373986</v>
+        <v>39.430894308943088</v>
       </c>
       <c r="P9" s="2">
-        <v>20.73170731707317</v>
+        <v>30.081300813008131</v>
       </c>
       <c r="Q9" s="2">
-        <v>26.829268292682926</v>
+        <v>31.300813008130081</v>
       </c>
       <c r="R9" s="2">
-        <v>24.796747967479675</v>
+        <v>26.016260162601625</v>
       </c>
       <c r="S9" s="2">
-        <v>39.837398373983739</v>
+        <v>18.699186991869919</v>
       </c>
       <c r="T9" s="2">
-        <v>6.9105691056910565</v>
+        <v>30.081300813008131</v>
       </c>
       <c r="U9" s="2">
-        <v>4.8780487804878048</v>
+        <v>2.4390243902439024</v>
       </c>
       <c r="V9" s="3">
         <v>139</v>
       </c>
       <c r="W9" s="2">
-        <v>58.441558441558442</v>
+        <v>43.636363636363633</v>
       </c>
       <c r="X9" s="2">
-        <v>28.831168831168831</v>
+        <v>8.8311688311688314</v>
       </c>
       <c r="Y9" s="2">
-        <v>34.025974025974023</v>
+        <v>38.18181818181818</v>
       </c>
       <c r="Z9" s="2">
-        <v>18.441558441558442</v>
+        <v>29.09090909090909</v>
       </c>
       <c r="AA9" s="2">
-        <v>29.61038961038961</v>
+        <v>36.623376623376622</v>
       </c>
       <c r="AB9" s="2">
-        <v>23.376623376623378</v>
+        <v>24.415584415584416</v>
       </c>
       <c r="AC9" s="2">
-        <v>42.337662337662337</v>
+        <v>22.597402597402599</v>
       </c>
       <c r="AD9" s="2">
-        <v>6.4935064935064934</v>
+        <v>32.987012987012989</v>
       </c>
       <c r="AE9" s="2">
-        <v>4.1558441558441555</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="AF9" s="3">
         <v>385</v>
@@ -1612,91 +1559,91 @@
         <v>17</v>
       </c>
       <c r="C10" s="2">
-        <v>49.466192170818502</v>
+        <v>64.768683274021356</v>
       </c>
       <c r="D10" s="2">
-        <v>22.064056939501778</v>
+        <v>64.768683274021356</v>
       </c>
       <c r="E10" s="2">
-        <v>27.046263345195729</v>
+        <v>74.37722419928825</v>
       </c>
       <c r="F10" s="2">
-        <v>30.604982206405694</v>
+        <v>10.676156583629894</v>
       </c>
       <c r="G10" s="2">
-        <v>33.096085409252666</v>
+        <v>22.775800711743774</v>
       </c>
       <c r="H10" s="2">
-        <v>16.725978647686834</v>
+        <v>21.708185053380785</v>
       </c>
       <c r="I10" s="2">
-        <v>31.672597864768683</v>
+        <v>27.402135231316727</v>
       </c>
       <c r="J10" s="2">
-        <v>6.7615658362989324</v>
+        <v>17.793594306049823</v>
       </c>
       <c r="K10" s="2">
-        <v>9.9644128113879002</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>281</v>
       </c>
       <c r="M10" s="2">
-        <v>51.724137931034484</v>
+        <v>75.862068965517238</v>
       </c>
       <c r="N10" s="2">
-        <v>36.781609195402297</v>
+        <v>75.862068965517238</v>
       </c>
       <c r="O10" s="2">
+        <v>73.563218390804593</v>
+      </c>
+      <c r="P10" s="2">
+        <v>5.7471264367816088</v>
+      </c>
+      <c r="Q10" s="2">
         <v>26.436781609195403</v>
       </c>
-      <c r="P10" s="2">
-        <v>21.839080459770116</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>51.724137931034484</v>
-      </c>
       <c r="R10" s="2">
-        <v>18.390804597701148</v>
+        <v>24.137931034482758</v>
       </c>
       <c r="S10" s="2">
-        <v>41.379310344827587</v>
+        <v>22.988505747126435</v>
       </c>
       <c r="T10" s="2">
-        <v>8.0459770114942533</v>
+        <v>20.689655172413794</v>
       </c>
       <c r="U10" s="2">
-        <v>5.7471264367816088</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3">
         <v>87</v>
       </c>
       <c r="W10" s="2">
-        <v>50</v>
+        <v>67.391304347826093</v>
       </c>
       <c r="X10" s="2">
-        <v>25.543478260869566</v>
+        <v>67.391304347826093</v>
       </c>
       <c r="Y10" s="2">
-        <v>26.902173913043477</v>
+        <v>74.184782608695656</v>
       </c>
       <c r="Z10" s="2">
-        <v>28.532608695652176</v>
+        <v>9.5108695652173907</v>
       </c>
       <c r="AA10" s="2">
-        <v>37.5</v>
+        <v>23.641304347826086</v>
       </c>
       <c r="AB10" s="2">
-        <v>17.119565217391305</v>
+        <v>22.282608695652176</v>
       </c>
       <c r="AC10" s="2">
-        <v>33.967391304347828</v>
+        <v>26.358695652173914</v>
       </c>
       <c r="AD10" s="2">
-        <v>7.0652173913043477</v>
+        <v>18.478260869565219</v>
       </c>
       <c r="AE10" s="2">
-        <v>8.9673913043478262</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="3">
         <v>368</v>
@@ -1710,91 +1657,91 @@
         <v>19</v>
       </c>
       <c r="C11" s="2">
-        <v>36.464088397790057</v>
+        <v>25.414364640883978</v>
       </c>
       <c r="D11" s="2">
-        <v>26.519337016574585</v>
+        <v>39.226519337016576</v>
       </c>
       <c r="E11" s="2">
-        <v>22.099447513812155</v>
+        <v>28.176795580110497</v>
       </c>
       <c r="F11" s="2">
-        <v>15.469613259668508</v>
+        <v>12.707182320441989</v>
       </c>
       <c r="G11" s="2">
-        <v>27.071823204419889</v>
+        <v>22.651933701657459</v>
       </c>
       <c r="H11" s="2">
-        <v>34.254143646408842</v>
+        <v>8.2872928176795586</v>
       </c>
       <c r="I11" s="2">
-        <v>20.441988950276244</v>
+        <v>18.784530386740332</v>
       </c>
       <c r="J11" s="2">
-        <v>1.6574585635359116</v>
+        <v>12.154696132596685</v>
       </c>
       <c r="K11" s="2">
-        <v>6.6298342541436464</v>
+        <v>4.972375690607735</v>
       </c>
       <c r="L11" s="3">
         <v>181</v>
       </c>
       <c r="M11" s="2">
-        <v>41</v>
+        <v>24.5</v>
       </c>
       <c r="N11" s="2">
-        <v>29.5</v>
+        <v>46.5</v>
       </c>
       <c r="O11" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P11" s="2">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="Q11" s="2">
-        <v>14.5</v>
+        <v>20.5</v>
       </c>
       <c r="R11" s="2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="S11" s="2">
-        <v>28.5</v>
+        <v>18.5</v>
       </c>
       <c r="T11" s="2">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="U11" s="2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="V11" s="3">
         <v>200</v>
       </c>
       <c r="W11" s="2">
-        <v>38.84514435695538</v>
+        <v>24.934383202099738</v>
       </c>
       <c r="X11" s="2">
-        <v>28.083989501312335</v>
+        <v>43.044619422572175</v>
       </c>
       <c r="Y11" s="2">
-        <v>23.622047244094489</v>
+        <v>27.034120734908136</v>
       </c>
       <c r="Z11" s="2">
-        <v>15.223097112860893</v>
+        <v>12.073490813648293</v>
       </c>
       <c r="AA11" s="2">
-        <v>20.472440944881889</v>
+        <v>21.522309711286088</v>
       </c>
       <c r="AB11" s="2">
-        <v>26.771653543307085</v>
+        <v>8.6614173228346463</v>
       </c>
       <c r="AC11" s="2">
-        <v>24.671916010498688</v>
+        <v>18.635170603674542</v>
       </c>
       <c r="AD11" s="2">
-        <v>0.78740157480314965</v>
+        <v>11.286089238845145</v>
       </c>
       <c r="AE11" s="2">
-        <v>5.7742782152230969</v>
+        <v>3.1496062992125986</v>
       </c>
       <c r="AF11" s="3">
         <v>381</v>
@@ -1808,28 +1755,28 @@
         <v>21</v>
       </c>
       <c r="C12" s="2">
-        <v>61.29032258064516</v>
+        <v>26.451612903225808</v>
       </c>
       <c r="D12" s="2">
         <v>1.2903225806451613</v>
       </c>
       <c r="E12" s="2">
-        <v>33.548387096774192</v>
+        <v>54.838709677419352</v>
       </c>
       <c r="F12" s="2">
-        <v>19.35483870967742</v>
+        <v>34.193548387096776</v>
       </c>
       <c r="G12" s="2">
-        <v>52.258064516129032</v>
+        <v>39.354838709677416</v>
       </c>
       <c r="H12" s="2">
-        <v>20.64516129032258</v>
+        <v>18.70967741935484</v>
       </c>
       <c r="I12" s="2">
-        <v>18.70967741935484</v>
+        <v>25.806451612903224</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>24.516129032258064</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -1838,61 +1785,61 @@
         <v>155</v>
       </c>
       <c r="M12" s="2">
-        <v>57.964601769911503</v>
+        <v>31.415929203539822</v>
       </c>
       <c r="N12" s="2">
         <v>2.6548672566371683</v>
       </c>
       <c r="O12" s="2">
-        <v>44.247787610619469</v>
+        <v>65.929203539823007</v>
       </c>
       <c r="P12" s="2">
-        <v>17.699115044247787</v>
+        <v>15.486725663716815</v>
       </c>
       <c r="Q12" s="2">
-        <v>42.035398230088497</v>
+        <v>40.707964601769909</v>
       </c>
       <c r="R12" s="2">
-        <v>15.929203539823009</v>
+        <v>19.469026548672566</v>
       </c>
       <c r="S12" s="2">
-        <v>10.176991150442477</v>
+        <v>13.274336283185841</v>
       </c>
       <c r="T12" s="2">
+        <v>30.973451327433629</v>
+      </c>
+      <c r="U12" s="2">
         <v>0.44247787610619471</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0.88495575221238942</v>
       </c>
       <c r="V12" s="3">
         <v>226</v>
       </c>
       <c r="W12" s="2">
-        <v>59.317585301837269</v>
+        <v>29.396325459317584</v>
       </c>
       <c r="X12" s="2">
         <v>2.0997375328083989</v>
       </c>
       <c r="Y12" s="2">
-        <v>39.895013123359583</v>
+        <v>61.417322834645667</v>
       </c>
       <c r="Z12" s="2">
+        <v>23.097112860892388</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>40.15748031496063</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>19.16010498687664</v>
+      </c>
+      <c r="AC12" s="2">
         <v>18.372703412073491</v>
       </c>
-      <c r="AA12" s="2">
-        <v>46.194225721784775</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>17.84776902887139</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>13.648293963254593</v>
-      </c>
       <c r="AD12" s="2">
+        <v>28.346456692913385</v>
+      </c>
+      <c r="AE12" s="2">
         <v>0.26246719160104987</v>
-      </c>
-      <c r="AE12" s="2">
-        <v>0.52493438320209973</v>
       </c>
       <c r="AF12" s="3">
         <v>381</v>
@@ -1906,91 +1853,91 @@
         <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>46.846846846846844</v>
+        <v>47.747747747747745</v>
       </c>
       <c r="D13" s="2">
+        <v>47.747747747747745</v>
+      </c>
+      <c r="E13" s="2">
+        <v>58.558558558558559</v>
+      </c>
+      <c r="F13" s="2">
+        <v>12.612612612612613</v>
+      </c>
+      <c r="G13" s="2">
+        <v>13.513513513513514</v>
+      </c>
+      <c r="H13" s="2">
         <v>30.63063063063063</v>
       </c>
-      <c r="E13" s="2">
-        <v>24.324324324324323</v>
-      </c>
-      <c r="F13" s="2">
-        <v>18.018018018018019</v>
-      </c>
-      <c r="G13" s="2">
-        <v>20.72072072072072</v>
-      </c>
-      <c r="H13" s="2">
-        <v>36.036036036036037</v>
-      </c>
       <c r="I13" s="2">
-        <v>43.243243243243242</v>
+        <v>26.126126126126128</v>
       </c>
       <c r="J13" s="2">
-        <v>13.513513513513514</v>
+        <v>12.612612612612613</v>
       </c>
       <c r="K13" s="2">
-        <v>10.810810810810811</v>
+        <v>0.90090090090090091</v>
       </c>
       <c r="L13" s="3">
         <v>111</v>
       </c>
       <c r="M13" s="2">
-        <v>51.914893617021278</v>
+        <v>34.468085106382979</v>
       </c>
       <c r="N13" s="2">
+        <v>34.468085106382979</v>
+      </c>
+      <c r="O13" s="2">
+        <v>55.744680851063826</v>
+      </c>
+      <c r="P13" s="2">
+        <v>14.893617021276595</v>
+      </c>
+      <c r="Q13" s="2">
         <v>23.829787234042552</v>
       </c>
-      <c r="O13" s="2">
+      <c r="R13" s="2">
+        <v>21.276595744680851</v>
+      </c>
+      <c r="S13" s="2">
         <v>28.085106382978722</v>
       </c>
-      <c r="P13" s="2">
-        <v>19.574468085106382</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>31.914893617021278</v>
-      </c>
-      <c r="R13" s="2">
-        <v>28.085106382978722</v>
-      </c>
-      <c r="S13" s="2">
-        <v>35.319148936170215</v>
-      </c>
       <c r="T13" s="2">
-        <v>9.3617021276595747</v>
+        <v>22.978723404255319</v>
       </c>
       <c r="U13" s="2">
-        <v>14.468085106382979</v>
+        <v>2.1276595744680851</v>
       </c>
       <c r="V13" s="3">
         <v>235</v>
       </c>
       <c r="W13" s="2">
-        <v>50.289017341040463</v>
+        <v>38.728323699421964</v>
       </c>
       <c r="X13" s="2">
-        <v>26.01156069364162</v>
+        <v>38.728323699421964</v>
       </c>
       <c r="Y13" s="2">
-        <v>26.878612716763005</v>
+        <v>56.647398843930638</v>
       </c>
       <c r="Z13" s="2">
-        <v>19.075144508670519</v>
+        <v>14.16184971098266</v>
       </c>
       <c r="AA13" s="2">
-        <v>28.323699421965319</v>
+        <v>20.520231213872833</v>
       </c>
       <c r="AB13" s="2">
-        <v>30.635838150289018</v>
+        <v>24.277456647398843</v>
       </c>
       <c r="AC13" s="2">
-        <v>37.861271676300575</v>
+        <v>27.456647398843931</v>
       </c>
       <c r="AD13" s="2">
-        <v>10.693641618497109</v>
+        <v>19.653179190751445</v>
       </c>
       <c r="AE13" s="2">
-        <v>13.294797687861271</v>
+        <v>1.7341040462427746</v>
       </c>
       <c r="AF13" s="3">
         <v>346</v>
@@ -2004,91 +1951,91 @@
         <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>53.784860557768923</v>
+        <v>35.856573705179279</v>
       </c>
       <c r="D14" s="2">
-        <v>25.89641434262948</v>
+        <v>5.5776892430278888</v>
       </c>
       <c r="E14" s="2">
-        <v>21.115537848605577</v>
+        <v>50.199203187250994</v>
       </c>
       <c r="F14" s="2">
-        <v>12.350597609561753</v>
+        <v>13.147410358565738</v>
       </c>
       <c r="G14" s="2">
-        <v>35.458167330677291</v>
+        <v>37.450199203187253</v>
       </c>
       <c r="H14" s="2">
-        <v>29.482071713147409</v>
+        <v>25.099601593625497</v>
       </c>
       <c r="I14" s="2">
-        <v>51.792828685258961</v>
+        <v>19.123505976095618</v>
       </c>
       <c r="J14" s="2">
-        <v>5.9760956175298805</v>
+        <v>43.82470119521912</v>
       </c>
       <c r="K14" s="2">
-        <v>5.1792828685258963</v>
+        <v>0.79681274900398402</v>
       </c>
       <c r="L14" s="3">
         <v>251</v>
       </c>
       <c r="M14" s="2">
-        <v>53.658536585365852</v>
+        <v>40.650406504065039</v>
       </c>
       <c r="N14" s="2">
+        <v>4.0650406504065044</v>
+      </c>
+      <c r="O14" s="2">
+        <v>65.853658536585371</v>
+      </c>
+      <c r="P14" s="2">
+        <v>9.7560975609756095</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>36.585365853658537</v>
+      </c>
+      <c r="R14" s="2">
         <v>23.577235772357724</v>
       </c>
-      <c r="O14" s="2">
-        <v>23.577235772357724</v>
-      </c>
-      <c r="P14" s="2">
-        <v>8.9430894308943092</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>39.024390243902438</v>
-      </c>
-      <c r="R14" s="2">
-        <v>26.829268292682926</v>
-      </c>
       <c r="S14" s="2">
-        <v>38.211382113821138</v>
+        <v>21.13821138211382</v>
       </c>
       <c r="T14" s="2">
-        <v>8.1300813008130088</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="U14" s="2">
-        <v>5.691056910569106</v>
+        <v>2.4390243902439024</v>
       </c>
       <c r="V14" s="3">
         <v>123</v>
       </c>
       <c r="W14" s="2">
-        <v>53.743315508021389</v>
+        <v>37.433155080213901</v>
       </c>
       <c r="X14" s="2">
-        <v>25.133689839572192</v>
+        <v>5.0802139037433154</v>
       </c>
       <c r="Y14" s="2">
-        <v>21.925133689839573</v>
+        <v>55.347593582887697</v>
       </c>
       <c r="Z14" s="2">
-        <v>11.229946524064172</v>
+        <v>12.032085561497325</v>
       </c>
       <c r="AA14" s="2">
-        <v>36.63101604278075</v>
+        <v>37.165775401069517</v>
       </c>
       <c r="AB14" s="2">
-        <v>28.609625668449198</v>
+        <v>24.598930481283421</v>
       </c>
       <c r="AC14" s="2">
-        <v>47.326203208556151</v>
+        <v>19.786096256684491</v>
       </c>
       <c r="AD14" s="2">
-        <v>6.6844919786096257</v>
+        <v>40.37433155080214</v>
       </c>
       <c r="AE14" s="2">
-        <v>5.3475935828877006</v>
+        <v>1.3368983957219251</v>
       </c>
       <c r="AF14" s="3">
         <v>374</v>
@@ -2102,10 +2049,10 @@
         <v>27</v>
       </c>
       <c r="C15" s="2">
-        <v>41.543026706231451</v>
+        <v>15.13353115727003</v>
       </c>
       <c r="D15" s="2">
-        <v>12.462908011869436</v>
+        <v>37.982195845697326</v>
       </c>
       <c r="E15" s="2">
         <v>6.8249258160237387</v>
@@ -2114,79 +2061,79 @@
         <v>2.3738872403560829</v>
       </c>
       <c r="G15" s="2">
-        <v>45.697329376854597</v>
+        <v>33.82789317507418</v>
       </c>
       <c r="H15" s="2">
-        <v>35.608308605341243</v>
+        <v>0.59347181008902072</v>
       </c>
       <c r="I15" s="2">
-        <v>24.03560830860534</v>
+        <v>2.9673590504451037</v>
       </c>
       <c r="J15" s="2">
-        <v>24.332344213649851</v>
+        <v>19.287833827893174</v>
       </c>
       <c r="K15" s="2">
-        <v>2.3738872403560829</v>
+        <v>9.1988130563798212</v>
       </c>
       <c r="L15" s="3">
         <v>337</v>
       </c>
       <c r="M15" s="2">
-        <v>27.083333333333332</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="N15" s="2">
-        <v>16.666666666666668</v>
+        <v>62.5</v>
       </c>
       <c r="O15" s="2">
         <v>2.0833333333333335</v>
       </c>
       <c r="P15" s="2">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>27.083333333333332</v>
+      </c>
+      <c r="R15" s="2">
         <v>0</v>
       </c>
-      <c r="Q15" s="2">
-        <v>35.416666666666664</v>
-      </c>
-      <c r="R15" s="2">
-        <v>39.583333333333336</v>
-      </c>
       <c r="S15" s="2">
-        <v>22.916666666666668</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="T15" s="2">
-        <v>18.75</v>
+        <v>10.416666666666666</v>
       </c>
       <c r="U15" s="2">
-        <v>6.25</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="V15" s="3">
         <v>48</v>
       </c>
       <c r="W15" s="2">
-        <v>39.740259740259738</v>
+        <v>13.766233766233766</v>
       </c>
       <c r="X15" s="2">
-        <v>12.987012987012987</v>
+        <v>41.038961038961041</v>
       </c>
       <c r="Y15" s="2">
         <v>6.2337662337662341</v>
       </c>
       <c r="Z15" s="2">
-        <v>2.0779220779220777</v>
+        <v>3.116883116883117</v>
       </c>
       <c r="AA15" s="2">
-        <v>44.415584415584412</v>
+        <v>32.987012987012989</v>
       </c>
       <c r="AB15" s="2">
-        <v>36.103896103896105</v>
+        <v>0.51948051948051943</v>
       </c>
       <c r="AC15" s="2">
-        <v>23.896103896103895</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="AD15" s="2">
-        <v>23.636363636363637</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="AE15" s="2">
-        <v>2.8571428571428572</v>
+        <v>8.3116883116883109</v>
       </c>
       <c r="AF15" s="3">
         <v>385</v>
@@ -2200,91 +2147,91 @@
         <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>55.932203389830505</v>
+        <v>41.949152542372879</v>
       </c>
       <c r="D16" s="2">
-        <v>43.220338983050844</v>
+        <v>2.5423728813559321</v>
       </c>
       <c r="E16" s="2">
-        <v>50</v>
+        <v>33.050847457627121</v>
       </c>
       <c r="F16" s="2">
-        <v>16.101694915254239</v>
+        <v>36.864406779661017</v>
       </c>
       <c r="G16" s="2">
-        <v>61.440677966101696</v>
+        <v>61.864406779661017</v>
       </c>
       <c r="H16" s="2">
-        <v>36.864406779661017</v>
+        <v>23.305084745762713</v>
       </c>
       <c r="I16" s="2">
-        <v>33.898305084745765</v>
+        <v>23.728813559322035</v>
       </c>
       <c r="J16" s="2">
-        <v>2.5423728813559321</v>
+        <v>59.745762711864408</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>2.9661016949152543</v>
       </c>
       <c r="L16" s="3">
         <v>236</v>
       </c>
       <c r="M16" s="2">
-        <v>70.666666666666671</v>
+        <v>50</v>
       </c>
       <c r="N16" s="2">
-        <v>28.666666666666668</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="O16" s="2">
-        <v>35.333333333333336</v>
+        <v>40.666666666666664</v>
       </c>
       <c r="P16" s="2">
-        <v>21.333333333333332</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="Q16" s="2">
-        <v>46.666666666666664</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="R16" s="2">
-        <v>50.666666666666664</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="S16" s="2">
-        <v>42</v>
+        <v>32.666666666666664</v>
       </c>
       <c r="T16" s="2">
-        <v>4.666666666666667</v>
+        <v>62.666666666666664</v>
       </c>
       <c r="U16" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V16" s="3">
         <v>150</v>
       </c>
       <c r="W16" s="2">
-        <v>61.6580310880829</v>
+        <v>45.077720207253883</v>
       </c>
       <c r="X16" s="2">
-        <v>37.564766839378237</v>
+        <v>2.849740932642487</v>
       </c>
       <c r="Y16" s="2">
-        <v>44.300518134715027</v>
+        <v>36.010362694300518</v>
       </c>
       <c r="Z16" s="2">
-        <v>18.134715025906736</v>
+        <v>26.683937823834196</v>
       </c>
       <c r="AA16" s="2">
-        <v>55.699481865284973</v>
+        <v>59.844559585492227</v>
       </c>
       <c r="AB16" s="2">
-        <v>42.2279792746114</v>
+        <v>25.647668393782382</v>
       </c>
       <c r="AC16" s="2">
-        <v>37.046632124352328</v>
+        <v>27.202072538860104</v>
       </c>
       <c r="AD16" s="2">
-        <v>3.3678756476683938</v>
+        <v>60.880829015544045</v>
       </c>
       <c r="AE16" s="2">
-        <v>0</v>
+        <v>2.5906735751295336</v>
       </c>
       <c r="AF16" s="3">
         <v>386</v>
@@ -2298,31 +2245,31 @@
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>40.208877284595303</v>
+        <v>45.691906005221931</v>
       </c>
       <c r="D17" s="2">
-        <v>19.06005221932115</v>
+        <v>4.6997389033942563</v>
       </c>
       <c r="E17" s="2">
+        <v>35.248041775456919</v>
+      </c>
+      <c r="F17" s="2">
+        <v>25.065274151436032</v>
+      </c>
+      <c r="G17" s="2">
         <v>21.932114882506529</v>
       </c>
-      <c r="F17" s="2">
-        <v>14.882506527415144</v>
-      </c>
-      <c r="G17" s="2">
-        <v>29.503916449086162</v>
-      </c>
       <c r="H17" s="2">
-        <v>37.075718015665799</v>
+        <v>12.532637075718016</v>
       </c>
       <c r="I17" s="2">
-        <v>34.986945169712797</v>
+        <v>20.104438642297652</v>
       </c>
       <c r="J17" s="2">
-        <v>2.3498694516971281</v>
+        <v>17.754569190600524</v>
       </c>
       <c r="K17" s="2">
-        <v>3.133159268929504</v>
+        <v>8.0939947780678843</v>
       </c>
       <c r="L17" s="3">
         <v>383</v>
@@ -2358,31 +2305,31 @@
         <v>0</v>
       </c>
       <c r="W17" s="2">
-        <v>40.208877284595303</v>
+        <v>45.691906005221931</v>
       </c>
       <c r="X17" s="2">
-        <v>19.06005221932115</v>
+        <v>4.6997389033942563</v>
       </c>
       <c r="Y17" s="2">
+        <v>35.248041775456919</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>25.065274151436032</v>
+      </c>
+      <c r="AA17" s="2">
         <v>21.932114882506529</v>
       </c>
-      <c r="Z17" s="2">
-        <v>14.882506527415144</v>
-      </c>
-      <c r="AA17" s="2">
-        <v>29.503916449086162</v>
-      </c>
       <c r="AB17" s="2">
-        <v>37.075718015665799</v>
+        <v>12.532637075718016</v>
       </c>
       <c r="AC17" s="2">
-        <v>34.986945169712797</v>
+        <v>20.104438642297652</v>
       </c>
       <c r="AD17" s="2">
-        <v>2.3498694516971281</v>
+        <v>17.754569190600524</v>
       </c>
       <c r="AE17" s="2">
-        <v>3.133159268929504</v>
+        <v>8.0939947780678843</v>
       </c>
       <c r="AF17" s="3">
         <v>383</v>
@@ -2396,58 +2343,58 @@
         <v>33</v>
       </c>
       <c r="C18" s="2">
-        <v>68.023255813953483</v>
+        <v>39.244186046511629</v>
       </c>
       <c r="D18" s="2">
-        <v>18.023255813953487</v>
+        <v>8.4302325581395348</v>
       </c>
       <c r="E18" s="2">
-        <v>60.465116279069768</v>
+        <v>28.488372093023255</v>
       </c>
       <c r="F18" s="2">
-        <v>53.488372093023258</v>
+        <v>37.790697674418603</v>
       </c>
       <c r="G18" s="2">
-        <v>32.267441860465119</v>
+        <v>47.674418604651166</v>
       </c>
       <c r="H18" s="2">
-        <v>22.674418604651162</v>
+        <v>10.755813953488373</v>
       </c>
       <c r="I18" s="2">
-        <v>29.941860465116278</v>
+        <v>9.8837209302325579</v>
       </c>
       <c r="J18" s="2">
-        <v>6.1046511627906979</v>
+        <v>44.47674418604651</v>
       </c>
       <c r="K18" s="2">
-        <v>7.2674418604651159</v>
+        <v>0.58139534883720934</v>
       </c>
       <c r="L18" s="3">
         <v>344</v>
       </c>
       <c r="M18" s="2">
-        <v>71.794871794871796</v>
+        <v>53.846153846153847</v>
       </c>
       <c r="N18" s="2">
+        <v>5.1282051282051286</v>
+      </c>
+      <c r="O18" s="2">
+        <v>61.53846153846154</v>
+      </c>
+      <c r="P18" s="2">
+        <v>35.897435897435898</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>56.410256410256409</v>
+      </c>
+      <c r="R18" s="2">
         <v>7.6923076923076925</v>
       </c>
-      <c r="O18" s="2">
-        <v>56.410256410256409</v>
-      </c>
-      <c r="P18" s="2">
-        <v>43.589743589743591</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>33.333333333333336</v>
-      </c>
-      <c r="R18" s="2">
-        <v>28.205128205128204</v>
-      </c>
       <c r="S18" s="2">
-        <v>10.256410256410257</v>
+        <v>5.1282051282051286</v>
       </c>
       <c r="T18" s="2">
-        <v>0</v>
+        <v>20.512820512820515</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
@@ -2456,31 +2403,31 @@
         <v>39</v>
       </c>
       <c r="W18" s="2">
-        <v>68.407310704960835</v>
+        <v>40.731070496083554</v>
       </c>
       <c r="X18" s="2">
-        <v>16.971279373368148</v>
+        <v>8.0939947780678843</v>
       </c>
       <c r="Y18" s="2">
-        <v>60.052219321148826</v>
+        <v>31.85378590078329</v>
       </c>
       <c r="Z18" s="2">
-        <v>52.480417754569189</v>
+        <v>37.59791122715405</v>
       </c>
       <c r="AA18" s="2">
-        <v>32.375979112271537</v>
+        <v>48.563968668407313</v>
       </c>
       <c r="AB18" s="2">
-        <v>23.237597911227155</v>
+        <v>10.443864229765014</v>
       </c>
       <c r="AC18" s="2">
-        <v>27.93733681462141</v>
+        <v>9.3994778067885125</v>
       </c>
       <c r="AD18" s="2">
-        <v>5.4830287206266322</v>
+        <v>42.036553524804177</v>
       </c>
       <c r="AE18" s="2">
-        <v>6.5274151436031334</v>
+        <v>0.52219321148825071</v>
       </c>
       <c r="AF18" s="3">
         <v>383</v>
@@ -2494,91 +2441,91 @@
         <v>35</v>
       </c>
       <c r="C19" s="2">
-        <v>66.120218579234972</v>
+        <v>71.584699453551906</v>
       </c>
       <c r="D19" s="2">
-        <v>37.158469945355193</v>
+        <v>14.754098360655737</v>
       </c>
       <c r="E19" s="2">
-        <v>60.10928961748634</v>
+        <v>24.043715846994534</v>
       </c>
       <c r="F19" s="2">
-        <v>16.393442622950818</v>
+        <v>27.3224043715847</v>
       </c>
       <c r="G19" s="2">
-        <v>24.043715846994534</v>
+        <v>6.0109289617486334</v>
       </c>
       <c r="H19" s="2">
-        <v>28.415300546448087</v>
+        <v>53.551912568306008</v>
       </c>
       <c r="I19" s="2">
-        <v>43.169398907103826</v>
+        <v>34.42622950819672</v>
       </c>
       <c r="J19" s="2">
+        <v>10.928961748633879</v>
+      </c>
+      <c r="K19" s="2">
         <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <v>6.557377049180328</v>
       </c>
       <c r="L19" s="3">
         <v>183</v>
       </c>
       <c r="M19" s="2">
-        <v>51.724137931034484</v>
+        <v>68.965517241379317</v>
       </c>
       <c r="N19" s="2">
-        <v>45.977011494252871</v>
+        <v>12.64367816091954</v>
       </c>
       <c r="O19" s="2">
-        <v>32.183908045977013</v>
+        <v>41.379310344827587</v>
       </c>
       <c r="P19" s="2">
-        <v>18.390804597701148</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="2">
-        <v>60.919540229885058</v>
+        <v>10.919540229885058</v>
       </c>
       <c r="R19" s="2">
-        <v>36.206896551724135</v>
+        <v>27.586206896551722</v>
       </c>
       <c r="S19" s="2">
-        <v>45.977011494252871</v>
+        <v>32.758620689655174</v>
       </c>
       <c r="T19" s="2">
+        <v>14.367816091954023</v>
+      </c>
+      <c r="U19" s="2">
         <v>0</v>
-      </c>
-      <c r="U19" s="2">
-        <v>2.2988505747126435</v>
       </c>
       <c r="V19" s="3">
         <v>174</v>
       </c>
       <c r="W19" s="2">
-        <v>55.091383812010442</v>
+        <v>65.535248041775461</v>
       </c>
       <c r="X19" s="2">
-        <v>38.642297650130551</v>
+        <v>12.793733681462141</v>
       </c>
       <c r="Y19" s="2">
-        <v>43.342036553524807</v>
+        <v>30.287206266318538</v>
       </c>
       <c r="Z19" s="2">
-        <v>16.187989556135769</v>
+        <v>35.770234986945169</v>
       </c>
       <c r="AA19" s="2">
-        <v>39.164490861618802</v>
+        <v>7.8328981723237598</v>
       </c>
       <c r="AB19" s="2">
-        <v>30.026109660574413</v>
+        <v>38.120104438642301</v>
       </c>
       <c r="AC19" s="2">
-        <v>41.514360313315926</v>
+        <v>31.331592689295039</v>
       </c>
       <c r="AD19" s="2">
+        <v>11.74934725848564</v>
+      </c>
+      <c r="AE19" s="2">
         <v>0</v>
-      </c>
-      <c r="AE19" s="2">
-        <v>4.1775456919060057</v>
       </c>
       <c r="AF19" s="3">
         <v>357</v>
@@ -2592,58 +2539,58 @@
         <v>37</v>
       </c>
       <c r="C20" s="2">
-        <v>74.796747967479675</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="D20" s="2">
-        <v>50.948509485094853</v>
+        <v>9.48509485094851</v>
       </c>
       <c r="E20" s="2">
-        <v>42.818428184281842</v>
+        <v>44.986449864498645</v>
       </c>
       <c r="F20" s="2">
-        <v>16.802168021680217</v>
+        <v>33.604336043360433</v>
       </c>
       <c r="G20" s="2">
-        <v>23.035230352303522</v>
+        <v>39.566395663956641</v>
       </c>
       <c r="H20" s="2">
-        <v>32.520325203252035</v>
+        <v>28.726287262872628</v>
       </c>
       <c r="I20" s="2">
-        <v>29.26829268292683</v>
+        <v>20.867208672086722</v>
       </c>
       <c r="J20" s="2">
+        <v>23.306233062330623</v>
+      </c>
+      <c r="K20" s="2">
         <v>5.691056910569106</v>
-      </c>
-      <c r="K20" s="2">
-        <v>2.4390243902439024</v>
       </c>
       <c r="L20" s="3">
         <v>369</v>
       </c>
       <c r="M20" s="2">
-        <v>60.606060606060609</v>
+        <v>48.484848484848484</v>
       </c>
       <c r="N20" s="2">
-        <v>36.363636363636367</v>
+        <v>6.0606060606060606</v>
       </c>
       <c r="O20" s="2">
-        <v>30.303030303030305</v>
+        <v>45.454545454545453</v>
       </c>
       <c r="P20" s="2">
-        <v>12.121212121212121</v>
+        <v>24.242424242424242</v>
       </c>
       <c r="Q20" s="2">
-        <v>45.454545454545453</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="R20" s="2">
-        <v>33.333333333333336</v>
+        <v>21.212121212121211</v>
       </c>
       <c r="S20" s="2">
-        <v>39.393939393939391</v>
+        <v>21.212121212121211</v>
       </c>
       <c r="T20" s="2">
-        <v>9.0909090909090917</v>
+        <v>27.272727272727273</v>
       </c>
       <c r="U20" s="2">
         <v>6.0606060606060606</v>
@@ -2652,31 +2599,31 @@
         <v>33</v>
       </c>
       <c r="W20" s="2">
-        <v>73.631840796019901</v>
+        <v>34.5771144278607</v>
       </c>
       <c r="X20" s="2">
-        <v>49.75124378109453</v>
+        <v>9.2039800995024876</v>
       </c>
       <c r="Y20" s="2">
-        <v>41.791044776119406</v>
+        <v>45.024875621890544</v>
       </c>
       <c r="Z20" s="2">
-        <v>16.417910447761194</v>
+        <v>32.835820895522389</v>
       </c>
       <c r="AA20" s="2">
-        <v>24.875621890547265</v>
+        <v>39.054726368159201</v>
       </c>
       <c r="AB20" s="2">
-        <v>32.587064676616919</v>
+        <v>28.109452736318406</v>
       </c>
       <c r="AC20" s="2">
-        <v>30.099502487562191</v>
+        <v>20.895522388059703</v>
       </c>
       <c r="AD20" s="2">
-        <v>5.9701492537313436</v>
+        <v>23.631840796019901</v>
       </c>
       <c r="AE20" s="2">
-        <v>2.7363184079601992</v>
+        <v>5.721393034825871</v>
       </c>
       <c r="AF20" s="3">
         <v>402</v>
@@ -2690,91 +2637,91 @@
         <v>39</v>
       </c>
       <c r="C21" s="2">
-        <v>66.111111111111114</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="D21" s="2">
-        <v>20</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="E21" s="2">
-        <v>23.333333333333332</v>
+        <v>47.222222222222221</v>
       </c>
       <c r="F21" s="2">
-        <v>23.333333333333332</v>
+        <v>27.222222222222221</v>
       </c>
       <c r="G21" s="2">
-        <v>21.111111111111111</v>
+        <v>25.555555555555557</v>
       </c>
       <c r="H21" s="2">
-        <v>25</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="I21" s="2">
-        <v>50</v>
+        <v>35.555555555555557</v>
       </c>
       <c r="J21" s="2">
-        <v>10.555555555555555</v>
+        <v>26.111111111111111</v>
       </c>
       <c r="K21" s="2">
-        <v>6.1111111111111107</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="L21" s="3">
         <v>180</v>
       </c>
       <c r="M21" s="2">
-        <v>56.157635467980299</v>
+        <v>38.916256157635466</v>
       </c>
       <c r="N21" s="2">
-        <v>21.182266009852217</v>
+        <v>38.916256157635466</v>
       </c>
       <c r="O21" s="2">
+        <v>51.724137931034484</v>
+      </c>
+      <c r="P21" s="2">
         <v>28.078817733990149</v>
       </c>
-      <c r="P21" s="2">
-        <v>20.689655172413794</v>
-      </c>
       <c r="Q21" s="2">
-        <v>27.586206896551722</v>
+        <v>22.167487684729064</v>
       </c>
       <c r="R21" s="2">
+        <v>19.704433497536947</v>
+      </c>
+      <c r="S21" s="2">
+        <v>28.078817733990149</v>
+      </c>
+      <c r="T21" s="2">
         <v>25.123152709359605</v>
       </c>
-      <c r="S21" s="2">
-        <v>40.88669950738916</v>
-      </c>
-      <c r="T21" s="2">
-        <v>7.389162561576355</v>
-      </c>
       <c r="U21" s="2">
-        <v>9.3596059113300498</v>
+        <v>2.4630541871921183</v>
       </c>
       <c r="V21" s="3">
         <v>203</v>
       </c>
       <c r="W21" s="2">
-        <v>60.835509138381198</v>
+        <v>43.342036553524807</v>
       </c>
       <c r="X21" s="2">
-        <v>20.626631853785902</v>
+        <v>43.342036553524807</v>
       </c>
       <c r="Y21" s="2">
-        <v>25.848563968668408</v>
+        <v>49.608355091383814</v>
       </c>
       <c r="Z21" s="2">
-        <v>21.932114882506529</v>
+        <v>27.676240208877285</v>
       </c>
       <c r="AA21" s="2">
-        <v>24.543080939947782</v>
+        <v>23.759791122715406</v>
       </c>
       <c r="AB21" s="2">
-        <v>25.065274151436032</v>
+        <v>18.276762402088774</v>
       </c>
       <c r="AC21" s="2">
-        <v>45.16971279373368</v>
+        <v>31.592689295039165</v>
       </c>
       <c r="AD21" s="2">
-        <v>8.8772845953002619</v>
+        <v>25.587467362924283</v>
       </c>
       <c r="AE21" s="2">
-        <v>7.8328981723237598</v>
+        <v>2.3498694516971281</v>
       </c>
       <c r="AF21" s="3">
         <v>383</v>
@@ -2788,91 +2735,91 @@
         <v>41</v>
       </c>
       <c r="C22" s="2">
-        <v>64.390243902439025</v>
+        <v>40.487804878048777</v>
       </c>
       <c r="D22" s="2">
-        <v>29.26829268292683</v>
+        <v>15.121951219512194</v>
       </c>
       <c r="E22" s="2">
-        <v>34.634146341463413</v>
+        <v>40.975609756097562</v>
       </c>
       <c r="F22" s="2">
-        <v>20.975609756097562</v>
+        <v>24.390243902439025</v>
       </c>
       <c r="G22" s="2">
-        <v>37.560975609756099</v>
+        <v>15.121951219512194</v>
       </c>
       <c r="H22" s="2">
-        <v>43.902439024390247</v>
+        <v>25.853658536585368</v>
       </c>
       <c r="I22" s="2">
-        <v>31.219512195121951</v>
+        <v>25.365853658536587</v>
       </c>
       <c r="J22" s="2">
-        <v>3.9024390243902438</v>
+        <v>22.926829268292682</v>
       </c>
       <c r="K22" s="2">
-        <v>2.9268292682926829</v>
+        <v>5.3658536585365857</v>
       </c>
       <c r="L22" s="3">
         <v>205</v>
       </c>
       <c r="M22" s="2">
-        <v>64.739884393063591</v>
+        <v>30.057803468208093</v>
       </c>
       <c r="N22" s="2">
-        <v>27.167630057803468</v>
+        <v>15.606936416184972</v>
       </c>
       <c r="O22" s="2">
-        <v>36.416184971098268</v>
+        <v>47.398843930635842</v>
       </c>
       <c r="P22" s="2">
-        <v>21.387283236994218</v>
+        <v>18.497109826589597</v>
       </c>
       <c r="Q22" s="2">
-        <v>36.994219653179194</v>
+        <v>25.433526011560694</v>
       </c>
       <c r="R22" s="2">
-        <v>41.618497109826592</v>
+        <v>30.635838150289018</v>
       </c>
       <c r="S22" s="2">
-        <v>30.635838150289018</v>
+        <v>20.23121387283237</v>
       </c>
       <c r="T22" s="2">
-        <v>2.8901734104046244</v>
+        <v>28.901734104046241</v>
       </c>
       <c r="U22" s="2">
-        <v>2.8901734104046244</v>
+        <v>5.202312138728324</v>
       </c>
       <c r="V22" s="3">
         <v>173</v>
       </c>
       <c r="W22" s="2">
-        <v>64.550264550264544</v>
+        <v>35.714285714285715</v>
       </c>
       <c r="X22" s="2">
-        <v>28.306878306878307</v>
+        <v>15.343915343915343</v>
       </c>
       <c r="Y22" s="2">
-        <v>35.449735449735449</v>
+        <v>43.915343915343918</v>
       </c>
       <c r="Z22" s="2">
-        <v>21.164021164021165</v>
+        <v>21.693121693121693</v>
       </c>
       <c r="AA22" s="2">
-        <v>37.301587301587304</v>
+        <v>19.841269841269842</v>
       </c>
       <c r="AB22" s="2">
-        <v>42.857142857142854</v>
+        <v>28.042328042328041</v>
       </c>
       <c r="AC22" s="2">
-        <v>30.952380952380953</v>
+        <v>23.015873015873016</v>
       </c>
       <c r="AD22" s="2">
-        <v>3.4391534391534391</v>
+        <v>25.661375661375661</v>
       </c>
       <c r="AE22" s="2">
-        <v>2.9100529100529102</v>
+        <v>5.2910052910052912</v>
       </c>
       <c r="AF22" s="3">
         <v>378</v>
@@ -2886,91 +2833,91 @@
         <v>43</v>
       </c>
       <c r="C23" s="2">
-        <v>51.282051282051285</v>
+        <v>48.205128205128204</v>
       </c>
       <c r="D23" s="2">
-        <v>29.743589743589745</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="E23" s="2">
-        <v>26.153846153846153</v>
+        <v>58.974358974358971</v>
       </c>
       <c r="F23" s="2">
-        <v>15.384615384615385</v>
+        <v>28.717948717948719</v>
       </c>
       <c r="G23" s="2">
-        <v>34.871794871794869</v>
+        <v>29.23076923076923</v>
       </c>
       <c r="H23" s="2">
-        <v>31.794871794871796</v>
+        <v>22.051282051282051</v>
       </c>
       <c r="I23" s="2">
-        <v>41.025641025641029</v>
+        <v>32.307692307692307</v>
       </c>
       <c r="J23" s="2">
-        <v>8.2051282051282044</v>
+        <v>23.589743589743591</v>
       </c>
       <c r="K23" s="2">
-        <v>4.1025641025641022</v>
+        <v>2.5641025641025643</v>
       </c>
       <c r="L23" s="3">
         <v>195</v>
       </c>
       <c r="M23" s="2">
-        <v>54.787234042553195</v>
+        <v>46.808510638297875</v>
       </c>
       <c r="N23" s="2">
-        <v>22.872340425531913</v>
+        <v>6.9148936170212769</v>
       </c>
       <c r="O23" s="2">
-        <v>28.191489361702128</v>
+        <v>55.851063829787236</v>
       </c>
       <c r="P23" s="2">
-        <v>22.340425531914892</v>
+        <v>30.851063829787233</v>
       </c>
       <c r="Q23" s="2">
-        <v>33.51063829787234</v>
+        <v>26.063829787234042</v>
       </c>
       <c r="R23" s="2">
-        <v>44.148936170212764</v>
+        <v>29.787234042553191</v>
       </c>
       <c r="S23" s="2">
-        <v>38.297872340425535</v>
+        <v>36.702127659574465</v>
       </c>
       <c r="T23" s="2">
-        <v>10.638297872340425</v>
+        <v>28.723404255319149</v>
       </c>
       <c r="U23" s="2">
-        <v>2.1276595744680851</v>
+        <v>1.0638297872340425</v>
       </c>
       <c r="V23" s="3">
         <v>188</v>
       </c>
       <c r="W23" s="2">
-        <v>53.002610966057439</v>
+        <v>47.519582245430811</v>
       </c>
       <c r="X23" s="2">
-        <v>26.370757180156659</v>
+        <v>6.7885117493472587</v>
       </c>
       <c r="Y23" s="2">
-        <v>27.154046997389035</v>
+        <v>57.441253263707573</v>
       </c>
       <c r="Z23" s="2">
-        <v>18.798955613577025</v>
+        <v>29.765013054830288</v>
       </c>
       <c r="AA23" s="2">
-        <v>34.203655352480418</v>
+        <v>27.676240208877285</v>
       </c>
       <c r="AB23" s="2">
-        <v>37.859007832898172</v>
+        <v>25.848563968668408</v>
       </c>
       <c r="AC23" s="2">
-        <v>39.686684073107052</v>
+        <v>34.464751958224547</v>
       </c>
       <c r="AD23" s="2">
-        <v>9.3994778067885125</v>
+        <v>26.109660574412533</v>
       </c>
       <c r="AE23" s="2">
-        <v>3.133159268929504</v>
+        <v>1.8276762402088773</v>
       </c>
       <c r="AF23" s="3">
         <v>383</v>
@@ -2984,91 +2931,91 @@
         <v>45</v>
       </c>
       <c r="C24" s="2">
+        <v>58.064516129032256</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.6129032258064515</v>
+      </c>
+      <c r="E24" s="2">
+        <v>54.838709677419352</v>
+      </c>
+      <c r="F24" s="2">
         <v>27.419354838709676</v>
       </c>
-      <c r="D24" s="2">
-        <v>8.064516129032258</v>
-      </c>
-      <c r="E24" s="2">
-        <v>46.774193548387096</v>
-      </c>
-      <c r="F24" s="2">
-        <v>4.838709677419355</v>
-      </c>
       <c r="G24" s="2">
-        <v>37.096774193548384</v>
+        <v>30.64516129032258</v>
       </c>
       <c r="H24" s="2">
-        <v>4.838709677419355</v>
+        <v>48.387096774193552</v>
       </c>
       <c r="I24" s="2">
-        <v>54.838709677419352</v>
+        <v>1.6129032258064515</v>
       </c>
       <c r="J24" s="2">
+        <v>3.225806451612903</v>
+      </c>
+      <c r="K24" s="2">
         <v>0</v>
-      </c>
-      <c r="K24" s="2">
-        <v>1.6129032258064515</v>
       </c>
       <c r="L24" s="3">
         <v>62</v>
       </c>
       <c r="M24" s="2">
-        <v>8.75</v>
+        <v>65.625</v>
       </c>
       <c r="N24" s="2">
-        <v>3.4375</v>
+        <v>5.3125</v>
       </c>
       <c r="O24" s="2">
-        <v>3.75</v>
+        <v>26.5625</v>
       </c>
       <c r="P24" s="2">
-        <v>1.5625</v>
+        <v>80.625</v>
       </c>
       <c r="Q24" s="2">
-        <v>6.875</v>
+        <v>6.25</v>
       </c>
       <c r="R24" s="2">
+        <v>2.1875</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="T24" s="2">
         <v>0</v>
       </c>
-      <c r="S24" s="2">
-        <v>37.1875</v>
-      </c>
-      <c r="T24" s="2">
-        <v>0.3125</v>
-      </c>
       <c r="U24" s="2">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="V24" s="3">
         <v>320</v>
       </c>
       <c r="W24" s="2">
-        <v>11.780104712041885</v>
+        <v>64.397905759162299</v>
       </c>
       <c r="X24" s="2">
-        <v>4.1884816753926701</v>
+        <v>4.7120418848167542</v>
       </c>
       <c r="Y24" s="2">
-        <v>10.732984293193716</v>
+        <v>31.151832460732983</v>
       </c>
       <c r="Z24" s="2">
-        <v>2.0942408376963351</v>
+        <v>71.989528795811523</v>
       </c>
       <c r="AA24" s="2">
-        <v>11.780104712041885</v>
+        <v>10.209424083769633</v>
       </c>
       <c r="AB24" s="2">
-        <v>0.78534031413612571</v>
+        <v>9.6858638743455501</v>
       </c>
       <c r="AC24" s="2">
-        <v>40.052356020942412</v>
+        <v>1.0471204188481675</v>
       </c>
       <c r="AD24" s="2">
-        <v>0.26178010471204188</v>
+        <v>0.52356020942408377</v>
       </c>
       <c r="AE24" s="2">
-        <v>40.052356020942412</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="3">
         <v>382</v>
@@ -3082,91 +3029,91 @@
         <v>47</v>
       </c>
       <c r="C25" s="2">
-        <v>60.9375</v>
+        <v>60.416666666666664</v>
       </c>
       <c r="D25" s="2">
-        <v>40.625</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="E25" s="2">
-        <v>45.833333333333336</v>
+        <v>45.3125</v>
       </c>
       <c r="F25" s="2">
-        <v>17.1875</v>
+        <v>16.145833333333332</v>
       </c>
       <c r="G25" s="2">
-        <v>28.125</v>
+        <v>28.645833333333332</v>
       </c>
       <c r="H25" s="2">
-        <v>13.020833333333334</v>
+        <v>16.145833333333332</v>
       </c>
       <c r="I25" s="2">
-        <v>11.979166666666666</v>
+        <v>17.708333333333332</v>
       </c>
       <c r="J25" s="2">
-        <v>5.729166666666667</v>
+        <v>33.854166666666664</v>
       </c>
       <c r="K25" s="2">
-        <v>7.8125</v>
+        <v>1.5625</v>
       </c>
       <c r="L25" s="3">
         <v>192</v>
       </c>
       <c r="M25" s="2">
-        <v>61.375661375661373</v>
+        <v>49.206349206349209</v>
       </c>
       <c r="N25" s="2">
-        <v>25.396825396825395</v>
+        <v>8.9947089947089953</v>
       </c>
       <c r="O25" s="2">
-        <v>38.624338624338627</v>
+        <v>52.910052910052912</v>
       </c>
       <c r="P25" s="2">
-        <v>25.396825396825395</v>
+        <v>20.105820105820104</v>
       </c>
       <c r="Q25" s="2">
-        <v>34.920634920634917</v>
+        <v>29.100529100529101</v>
       </c>
       <c r="R25" s="2">
-        <v>18.518518518518519</v>
+        <v>19.576719576719576</v>
       </c>
       <c r="S25" s="2">
-        <v>29.100529100529101</v>
+        <v>28.042328042328041</v>
       </c>
       <c r="T25" s="2">
-        <v>4.7619047619047619</v>
+        <v>25.925925925925927</v>
       </c>
       <c r="U25" s="2">
-        <v>10.052910052910052</v>
+        <v>4.2328042328042326</v>
       </c>
       <c r="V25" s="3">
         <v>189</v>
       </c>
       <c r="W25" s="2">
-        <v>61.15485564304462</v>
+        <v>54.85564304461942</v>
       </c>
       <c r="X25" s="2">
-        <v>33.070866141732282</v>
+        <v>6.5616797900262469</v>
       </c>
       <c r="Y25" s="2">
-        <v>42.257217847769027</v>
+        <v>49.081364829396328</v>
       </c>
       <c r="Z25" s="2">
-        <v>21.259842519685041</v>
+        <v>18.110236220472441</v>
       </c>
       <c r="AA25" s="2">
-        <v>31.496062992125985</v>
+        <v>28.871391076115486</v>
       </c>
       <c r="AB25" s="2">
-        <v>15.748031496062993</v>
+        <v>17.84776902887139</v>
       </c>
       <c r="AC25" s="2">
-        <v>20.472440944881889</v>
+        <v>22.834645669291337</v>
       </c>
       <c r="AD25" s="2">
-        <v>5.2493438320209975</v>
+        <v>29.921259842519685</v>
       </c>
       <c r="AE25" s="2">
-        <v>8.9238845144356951</v>
+        <v>2.8871391076115485</v>
       </c>
       <c r="AF25" s="3">
         <v>381</v>
@@ -3180,91 +3127,91 @@
         <v>49</v>
       </c>
       <c r="C26" s="2">
-        <v>54.981549815498155</v>
+        <v>47.749077490774908</v>
       </c>
       <c r="D26" s="2">
-        <v>39.483394833948338</v>
+        <v>9.6678966789667893</v>
       </c>
       <c r="E26" s="2">
-        <v>22.804428044280442</v>
+        <v>38.966789667896677</v>
       </c>
       <c r="F26" s="2">
-        <v>9.0774907749077496</v>
+        <v>26.715867158671585</v>
       </c>
       <c r="G26" s="2">
-        <v>25.092250922509226</v>
+        <v>29.446494464944649</v>
       </c>
       <c r="H26" s="2">
-        <v>41.180811808118079</v>
+        <v>24.206642066420663</v>
       </c>
       <c r="I26" s="2">
-        <v>42.214022140221402</v>
+        <v>21.402214022140221</v>
       </c>
       <c r="J26" s="2">
-        <v>5.3136531365313653</v>
+        <v>22.509225092250922</v>
       </c>
       <c r="K26" s="2">
-        <v>1.9188191881918819</v>
+        <v>5.0922509225092254</v>
       </c>
       <c r="L26" s="3">
         <v>1355</v>
       </c>
       <c r="M26" s="2">
-        <v>81.845018450184497</v>
+        <v>63.616236162361623</v>
       </c>
       <c r="N26" s="2">
-        <v>54.022140221402211</v>
+        <v>12.988929889298893</v>
       </c>
       <c r="O26" s="2">
-        <v>27.011070110701105</v>
+        <v>47.527675276752767</v>
       </c>
       <c r="P26" s="2">
-        <v>10.92250922509225</v>
+        <v>36.309963099630998</v>
       </c>
       <c r="Q26" s="2">
-        <v>33.284132841328415</v>
+        <v>48.191881918819185</v>
       </c>
       <c r="R26" s="2">
-        <v>58.523985239852401</v>
+        <v>27.453874538745389</v>
       </c>
       <c r="S26" s="2">
-        <v>60.59040590405904</v>
+        <v>23.616236162361623</v>
       </c>
       <c r="T26" s="2">
-        <v>6.3468634686346865</v>
+        <v>32.841328413284131</v>
       </c>
       <c r="U26" s="2">
-        <v>2.140221402214022</v>
+        <v>5.9778597785977858</v>
       </c>
       <c r="V26" s="3">
         <v>577</v>
       </c>
       <c r="W26" s="2">
-        <v>81.845018450184497</v>
+        <v>63.616236162361623</v>
       </c>
       <c r="X26" s="2">
-        <v>54.022140221402211</v>
+        <v>12.988929889298893</v>
       </c>
       <c r="Y26" s="2">
-        <v>27.011070110701105</v>
+        <v>47.527675276752767</v>
       </c>
       <c r="Z26" s="2">
-        <v>10.92250922509225</v>
+        <v>36.309963099630998</v>
       </c>
       <c r="AA26" s="2">
-        <v>33.284132841328415</v>
+        <v>48.191881918819185</v>
       </c>
       <c r="AB26" s="2">
-        <v>58.523985239852401</v>
+        <v>27.453874538745389</v>
       </c>
       <c r="AC26" s="2">
-        <v>60.59040590405904</v>
+        <v>23.616236162361623</v>
       </c>
       <c r="AD26" s="2">
-        <v>6.3468634686346865</v>
+        <v>32.841328413284131</v>
       </c>
       <c r="AE26" s="2">
-        <v>2.140221402214022</v>
+        <v>5.9778597785977858</v>
       </c>
       <c r="AF26" s="3">
         <v>1932</v>
@@ -3278,91 +3225,91 @@
         <v>51</v>
       </c>
       <c r="C27" s="2">
-        <v>39.816513761467888</v>
+        <v>75.779816513761475</v>
       </c>
       <c r="D27" s="2">
-        <v>28.807339449541285</v>
+        <v>0.73394495412844041</v>
       </c>
       <c r="E27" s="2">
-        <v>28.623853211009173</v>
+        <v>70.091743119266056</v>
       </c>
       <c r="F27" s="2">
-        <v>16.146788990825687</v>
+        <v>55.596330275229356</v>
       </c>
       <c r="G27" s="2">
-        <v>18.715596330275229</v>
+        <v>15.229357798165138</v>
       </c>
       <c r="H27" s="2">
-        <v>21.100917431192659</v>
+        <v>9.7247706422018343</v>
       </c>
       <c r="I27" s="2">
-        <v>21.651376146788991</v>
+        <v>6.238532110091743</v>
       </c>
       <c r="J27" s="2">
-        <v>3.8532110091743119</v>
+        <v>9.5412844036697244</v>
       </c>
       <c r="K27" s="2">
-        <v>1.1009174311926606</v>
+        <v>0.73394495412844041</v>
       </c>
       <c r="L27" s="3">
         <v>545</v>
       </c>
       <c r="M27" s="2">
-        <v>36.535662299854437</v>
+        <v>76.710334788937402</v>
       </c>
       <c r="N27" s="2">
-        <v>31.004366812227076</v>
+        <v>1.4556040756914119</v>
       </c>
       <c r="O27" s="2">
-        <v>32.02328966521106</v>
+        <v>69.86899563318778</v>
       </c>
       <c r="P27" s="2">
-        <v>20.378457059679768</v>
+        <v>54.87627365356623</v>
       </c>
       <c r="Q27" s="2">
-        <v>18.34061135371179</v>
+        <v>16.302765647743815</v>
       </c>
       <c r="R27" s="2">
-        <v>18.486171761280932</v>
+        <v>10.334788937409025</v>
       </c>
       <c r="S27" s="2">
-        <v>18.34061135371179</v>
+        <v>5.6768558951965069</v>
       </c>
       <c r="T27" s="2">
-        <v>3.9301310043668121</v>
+        <v>8.8791848617176132</v>
       </c>
       <c r="U27" s="2">
-        <v>2.9112081513828238</v>
+        <v>0.58224163027656473</v>
       </c>
       <c r="V27" s="3">
         <v>142</v>
       </c>
       <c r="W27" s="2">
-        <v>36.535662299854437</v>
+        <v>76.710334788937402</v>
       </c>
       <c r="X27" s="2">
-        <v>31.004366812227076</v>
+        <v>1.4556040756914119</v>
       </c>
       <c r="Y27" s="2">
-        <v>32.02328966521106</v>
+        <v>69.86899563318778</v>
       </c>
       <c r="Z27" s="2">
-        <v>20.378457059679768</v>
+        <v>54.87627365356623</v>
       </c>
       <c r="AA27" s="2">
-        <v>18.34061135371179</v>
+        <v>16.302765647743815</v>
       </c>
       <c r="AB27" s="2">
-        <v>18.486171761280932</v>
+        <v>10.334788937409025</v>
       </c>
       <c r="AC27" s="2">
-        <v>18.34061135371179</v>
+        <v>5.6768558951965069</v>
       </c>
       <c r="AD27" s="2">
-        <v>3.9301310043668121</v>
+        <v>8.8791848617176132</v>
       </c>
       <c r="AE27" s="2">
-        <v>2.9112081513828238</v>
+        <v>0.58224163027656473</v>
       </c>
       <c r="AF27" s="3">
         <v>687</v>
@@ -3376,91 +3323,91 @@
         <v>53</v>
       </c>
       <c r="C28" s="2">
-        <v>48.691099476439788</v>
+        <v>38.219895287958117</v>
       </c>
       <c r="D28" s="2">
-        <v>18.848167539267017</v>
+        <v>38.219895287958117</v>
       </c>
       <c r="E28" s="2">
-        <v>34.554973821989527</v>
+        <v>49.738219895287955</v>
       </c>
       <c r="F28" s="2">
-        <v>26.701570680628272</v>
+        <v>22.513089005235603</v>
       </c>
       <c r="G28" s="2">
-        <v>27.748691099476439</v>
+        <v>32.984293193717278</v>
       </c>
       <c r="H28" s="2">
+        <v>22.513089005235603</v>
+      </c>
+      <c r="I28" s="2">
+        <v>21.465968586387433</v>
+      </c>
+      <c r="J28" s="2">
         <v>28.272251308900522</v>
       </c>
-      <c r="I28" s="2">
-        <v>35.602094240837694</v>
-      </c>
-      <c r="J28" s="2">
+      <c r="K28" s="2">
         <v>5.2356020942408374</v>
-      </c>
-      <c r="K28" s="2">
-        <v>7.8534031413612562</v>
       </c>
       <c r="L28" s="3">
         <v>191</v>
       </c>
       <c r="M28" s="2">
-        <v>47.761194029850749</v>
+        <v>38.805970149253731</v>
       </c>
       <c r="N28" s="2">
-        <v>23.134328358208954</v>
+        <v>38.805970149253731</v>
       </c>
       <c r="O28" s="2">
-        <v>33.582089552238806</v>
+        <v>50.746268656716417</v>
       </c>
       <c r="P28" s="2">
-        <v>25.373134328358208</v>
+        <v>26.119402985074625</v>
       </c>
       <c r="Q28" s="2">
-        <v>34.328358208955223</v>
+        <v>38.059701492537314</v>
       </c>
       <c r="R28" s="2">
-        <v>26.119402985074625</v>
+        <v>32.089552238805972</v>
       </c>
       <c r="S28" s="2">
-        <v>23.134328358208954</v>
+        <v>19.402985074626866</v>
       </c>
       <c r="T28" s="2">
-        <v>4.4776119402985071</v>
+        <v>16.417910447761194</v>
       </c>
       <c r="U28" s="2">
-        <v>14.925373134328359</v>
+        <v>2.2388059701492535</v>
       </c>
       <c r="V28" s="3">
         <v>134</v>
       </c>
       <c r="W28" s="2">
-        <v>48.307692307692307</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="X28" s="2">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>50.153846153846153</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>35.07692307692308</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>26.46153846153846</v>
+      </c>
+      <c r="AC28" s="2">
         <v>20.615384615384617</v>
       </c>
-      <c r="Y28" s="2">
-        <v>34.153846153846153</v>
-      </c>
-      <c r="Z28" s="2">
-        <v>26.153846153846153</v>
-      </c>
-      <c r="AA28" s="2">
-        <v>30.46153846153846</v>
-      </c>
-      <c r="AB28" s="2">
-        <v>27.384615384615383</v>
-      </c>
-      <c r="AC28" s="2">
-        <v>30.46153846153846</v>
-      </c>
       <c r="AD28" s="2">
-        <v>4.9230769230769234</v>
+        <v>23.384615384615383</v>
       </c>
       <c r="AE28" s="2">
-        <v>10.76923076923077</v>
+        <v>4</v>
       </c>
       <c r="AF28" s="3">
         <v>325</v>
@@ -3474,91 +3421,91 @@
         <v>55</v>
       </c>
       <c r="C29" s="2">
-        <v>58.196721311475407</v>
+        <v>50</v>
       </c>
       <c r="D29" s="2">
-        <v>22.131147540983605</v>
+        <v>8.1967213114754092</v>
       </c>
       <c r="E29" s="2">
-        <v>26.229508196721312</v>
+        <v>37.704918032786885</v>
       </c>
       <c r="F29" s="2">
-        <v>12.295081967213115</v>
+        <v>27.049180327868854</v>
       </c>
       <c r="G29" s="2">
-        <v>25.409836065573771</v>
+        <v>29.508196721311474</v>
       </c>
       <c r="H29" s="2">
-        <v>31.147540983606557</v>
+        <v>20.491803278688526</v>
       </c>
       <c r="I29" s="2">
-        <v>36.065573770491802</v>
+        <v>23.770491803278688</v>
       </c>
       <c r="J29" s="2">
-        <v>7.3770491803278686</v>
+        <v>27.868852459016395</v>
       </c>
       <c r="K29" s="2">
-        <v>8.1967213114754092</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="L29" s="3">
         <v>122</v>
       </c>
       <c r="M29" s="2">
-        <v>62.903225806451616</v>
+        <v>33.87096774193548</v>
       </c>
       <c r="N29" s="2">
-        <v>19.758064516129032</v>
+        <v>6.854838709677419</v>
       </c>
       <c r="O29" s="2">
+        <v>41.12903225806452</v>
+      </c>
+      <c r="P29" s="2">
+        <v>14.112903225806452</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>43.951612903225808</v>
+      </c>
+      <c r="R29" s="2">
+        <v>15.725806451612904</v>
+      </c>
+      <c r="S29" s="2">
         <v>21.774193548387096</v>
       </c>
-      <c r="P29" s="2">
-        <v>18.548387096774192</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>18.951612903225808</v>
-      </c>
-      <c r="R29" s="2">
-        <v>22.983870967741936</v>
-      </c>
-      <c r="S29" s="2">
-        <v>36.693548387096776</v>
-      </c>
       <c r="T29" s="2">
-        <v>3.225806451612903</v>
+        <v>23.79032258064516</v>
       </c>
       <c r="U29" s="2">
-        <v>3.629032258064516</v>
+        <v>0.40322580645161288</v>
       </c>
       <c r="V29" s="3">
         <v>248</v>
       </c>
       <c r="W29" s="2">
-        <v>61.351351351351354</v>
+        <v>39.189189189189186</v>
       </c>
       <c r="X29" s="2">
-        <v>20.54054054054054</v>
+        <v>7.2972972972972974</v>
       </c>
       <c r="Y29" s="2">
-        <v>23.243243243243242</v>
+        <v>40</v>
       </c>
       <c r="Z29" s="2">
-        <v>16.486486486486488</v>
+        <v>18.378378378378379</v>
       </c>
       <c r="AA29" s="2">
-        <v>21.081081081081081</v>
+        <v>39.189189189189186</v>
       </c>
       <c r="AB29" s="2">
-        <v>25.675675675675677</v>
+        <v>17.297297297297298</v>
       </c>
       <c r="AC29" s="2">
-        <v>36.486486486486484</v>
+        <v>22.432432432432432</v>
       </c>
       <c r="AD29" s="2">
-        <v>4.5945945945945947</v>
+        <v>25.135135135135137</v>
       </c>
       <c r="AE29" s="2">
-        <v>5.1351351351351351</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="AF29" s="3">
         <v>370</v>
@@ -3572,91 +3519,91 @@
         <v>57</v>
       </c>
       <c r="C30" s="2">
-        <v>55.603448275862071</v>
+        <v>40.086206896551722</v>
       </c>
       <c r="D30" s="2">
-        <v>25.862068965517242</v>
+        <v>9.4827586206896548</v>
       </c>
       <c r="E30" s="2">
-        <v>25</v>
+        <v>36.206896551724135</v>
       </c>
       <c r="F30" s="2">
-        <v>12.931034482758621</v>
+        <v>25.431034482758619</v>
       </c>
       <c r="G30" s="2">
-        <v>32.327586206896555</v>
+        <v>36.637931034482762</v>
       </c>
       <c r="H30" s="2">
-        <v>28.448275862068964</v>
+        <v>20.689655172413794</v>
       </c>
       <c r="I30" s="2">
-        <v>46.120689655172413</v>
+        <v>19.396551724137932</v>
       </c>
       <c r="J30" s="2">
-        <v>3.0172413793103448</v>
+        <v>29.741379310344829</v>
       </c>
       <c r="K30" s="2">
-        <v>5.6034482758620694</v>
+        <v>3.8793103448275863</v>
       </c>
       <c r="L30" s="3">
         <v>232</v>
       </c>
       <c r="M30" s="2">
-        <v>37.41935483870968</v>
+        <v>22.580645161290324</v>
       </c>
       <c r="N30" s="2">
-        <v>27.741935483870968</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="O30" s="2">
-        <v>26.451612903225808</v>
+        <v>41.29032258064516</v>
       </c>
       <c r="P30" s="2">
-        <v>15.483870967741936</v>
+        <v>21.93548387096774</v>
       </c>
       <c r="Q30" s="2">
-        <v>32.258064516129032</v>
+        <v>44.516129032258064</v>
       </c>
       <c r="R30" s="2">
-        <v>18.06451612903226</v>
+        <v>23.870967741935484</v>
       </c>
       <c r="S30" s="2">
-        <v>27.741935483870968</v>
+        <v>12.258064516129032</v>
       </c>
       <c r="T30" s="2">
-        <v>1.935483870967742</v>
+        <v>38.70967741935484</v>
       </c>
       <c r="U30" s="2">
-        <v>20.64516129032258</v>
+        <v>4.5161290322580649</v>
       </c>
       <c r="V30" s="3">
         <v>155</v>
       </c>
       <c r="W30" s="2">
-        <v>48.320413436692505</v>
+        <v>33.074935400516793</v>
       </c>
       <c r="X30" s="2">
-        <v>26.614987080103358</v>
+        <v>9.5607235142118867</v>
       </c>
       <c r="Y30" s="2">
-        <v>25.581395348837209</v>
+        <v>38.242894056847547</v>
       </c>
       <c r="Z30" s="2">
-        <v>13.953488372093023</v>
+        <v>24.031007751937985</v>
       </c>
       <c r="AA30" s="2">
-        <v>32.299741602067186</v>
+        <v>39.793281653746767</v>
       </c>
       <c r="AB30" s="2">
-        <v>24.289405684754524</v>
+        <v>21.963824289405686</v>
       </c>
       <c r="AC30" s="2">
-        <v>38.759689922480618</v>
+        <v>16.537467700258397</v>
       </c>
       <c r="AD30" s="2">
-        <v>2.5839793281653747</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="AE30" s="2">
-        <v>11.627906976744185</v>
+        <v>4.1343669250645991</v>
       </c>
       <c r="AF30" s="3">
         <v>387</v>
@@ -3670,28 +3617,28 @@
         <v>59</v>
       </c>
       <c r="C31" s="2">
-        <v>54.411764705882355</v>
+        <v>46.691176470588232</v>
       </c>
       <c r="D31" s="2">
-        <v>31.985294117647058</v>
+        <v>8.0882352941176467</v>
       </c>
       <c r="E31" s="2">
-        <v>21.691176470588236</v>
+        <v>43.014705882352942</v>
       </c>
       <c r="F31" s="2">
-        <v>15.441176470588236</v>
+        <v>34.926470588235297</v>
       </c>
       <c r="G31" s="2">
-        <v>26.470588235294116</v>
+        <v>26.838235294117649</v>
       </c>
       <c r="H31" s="2">
-        <v>37.132352941176471</v>
+        <v>17.647058823529413</v>
       </c>
       <c r="I31" s="2">
-        <v>61.397058823529413</v>
+        <v>30.882352941176471</v>
       </c>
       <c r="J31" s="2">
-        <v>5.882352941176471</v>
+        <v>25.735294117647058</v>
       </c>
       <c r="K31" s="2">
         <v>4.0441176470588234</v>
@@ -3700,61 +3647,61 @@
         <v>272</v>
       </c>
       <c r="M31" s="2">
-        <v>45.945945945945944</v>
+        <v>23.423423423423422</v>
       </c>
       <c r="N31" s="2">
-        <v>35.135135135135137</v>
+        <v>14.414414414414415</v>
       </c>
       <c r="O31" s="2">
+        <v>38.738738738738739</v>
+      </c>
+      <c r="P31" s="2">
+        <v>22.522522522522522</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>13.513513513513514</v>
+      </c>
+      <c r="R31" s="2">
+        <v>7.2072072072072073</v>
+      </c>
+      <c r="S31" s="2">
         <v>8.1081081081081088</v>
       </c>
-      <c r="P31" s="2">
-        <v>9.0090090090090094</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>44.144144144144143</v>
-      </c>
-      <c r="R31" s="2">
-        <v>38.738738738738739</v>
-      </c>
-      <c r="S31" s="2">
-        <v>59.45945945945946</v>
-      </c>
       <c r="T31" s="2">
-        <v>12.612612612612613</v>
+        <v>18.018018018018019</v>
       </c>
       <c r="U31" s="2">
-        <v>0</v>
+        <v>2.7027027027027026</v>
       </c>
       <c r="V31" s="3">
         <v>111</v>
       </c>
       <c r="W31" s="2">
-        <v>51.958224543080938</v>
+        <v>39.947780678851174</v>
       </c>
       <c r="X31" s="2">
-        <v>32.898172323759788</v>
+        <v>9.9216710182767631</v>
       </c>
       <c r="Y31" s="2">
-        <v>17.754569190600524</v>
+        <v>41.775456919060055</v>
       </c>
       <c r="Z31" s="2">
-        <v>13.577023498694517</v>
+        <v>31.331592689295039</v>
       </c>
       <c r="AA31" s="2">
-        <v>31.592689295039165</v>
+        <v>22.97650130548303</v>
       </c>
       <c r="AB31" s="2">
-        <v>37.59791122715405</v>
+        <v>14.621409921671018</v>
       </c>
       <c r="AC31" s="2">
-        <v>60.835509138381198</v>
+        <v>24.281984334203656</v>
       </c>
       <c r="AD31" s="2">
-        <v>7.8328981723237598</v>
+        <v>23.49869451697128</v>
       </c>
       <c r="AE31" s="2">
-        <v>2.8720626631853787</v>
+        <v>3.6553524804177546</v>
       </c>
       <c r="AF31" s="3">
         <v>383</v>
@@ -3768,31 +3715,31 @@
         <v>61</v>
       </c>
       <c r="C32" s="2">
-        <v>58.448753462603875</v>
+        <v>41.551246537396125</v>
       </c>
       <c r="D32" s="2">
-        <v>31.301939058171744</v>
+        <v>10.526315789473685</v>
       </c>
       <c r="E32" s="2">
-        <v>28.531855955678669</v>
+        <v>51.800554016620495</v>
       </c>
       <c r="F32" s="2">
-        <v>22.1606648199446</v>
+        <v>30.747922437673129</v>
       </c>
       <c r="G32" s="2">
-        <v>30.470914127423821</v>
+        <v>26.315789473684209</v>
       </c>
       <c r="H32" s="2">
-        <v>28.254847645429361</v>
+        <v>29.639889196675899</v>
       </c>
       <c r="I32" s="2">
-        <v>45.42936288088643</v>
+        <v>27.146814404432131</v>
       </c>
       <c r="J32" s="2">
+        <v>24.099722991689752</v>
+      </c>
+      <c r="K32" s="2">
         <v>3.3240997229916895</v>
-      </c>
-      <c r="K32" s="2">
-        <v>6.3711911357340716</v>
       </c>
       <c r="L32" s="3">
         <v>361</v>
@@ -3801,58 +3748,58 @@
         <v>40</v>
       </c>
       <c r="N32" s="2">
+        <v>26.666666666666668</v>
+      </c>
+      <c r="O32" s="2">
         <v>40</v>
       </c>
-      <c r="O32" s="2">
+      <c r="P32" s="2">
         <v>26.666666666666668</v>
-      </c>
-      <c r="P32" s="2">
-        <v>46.666666666666664</v>
       </c>
       <c r="Q32" s="2">
         <v>13.333333333333334</v>
       </c>
       <c r="R32" s="2">
-        <v>26.666666666666668</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="S32" s="2">
-        <v>26.666666666666668</v>
+        <v>20</v>
       </c>
       <c r="T32" s="2">
-        <v>6.666666666666667</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="U32" s="2">
-        <v>13.333333333333334</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>15</v>
       </c>
       <c r="W32" s="2">
-        <v>57.712765957446805</v>
+        <v>41.48936170212766</v>
       </c>
       <c r="X32" s="2">
-        <v>31.648936170212767</v>
+        <v>11.170212765957446</v>
       </c>
       <c r="Y32" s="2">
-        <v>28.457446808510639</v>
+        <v>51.329787234042556</v>
       </c>
       <c r="Z32" s="2">
-        <v>23.138297872340427</v>
+        <v>30.585106382978722</v>
       </c>
       <c r="AA32" s="2">
-        <v>29.787234042553191</v>
+        <v>25.797872340425531</v>
       </c>
       <c r="AB32" s="2">
-        <v>28.191489361702128</v>
+        <v>28.98936170212766</v>
       </c>
       <c r="AC32" s="2">
-        <v>44.680851063829785</v>
+        <v>26.861702127659573</v>
       </c>
       <c r="AD32" s="2">
-        <v>3.4574468085106385</v>
+        <v>25</v>
       </c>
       <c r="AE32" s="2">
-        <v>6.6489361702127656</v>
+        <v>3.1914893617021276</v>
       </c>
       <c r="AF32" s="3">
         <v>376</v>
@@ -3860,6 +3807,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>